--- a/06_Jun/01_DeMaryChuyParaMonica/DGAIGAT_junio_DCIIAT_Integrado28062024.xlsx
+++ b/06_Jun/01_DeMaryChuyParaMonica/DGAIGAT_junio_DCIIAT_Integrado28062024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldebaran.uicab.INEGI\Documents\INEGI\PAT 2024\REPORTE AVANCE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inegi 2020\2024\01_InformeMensual_2024\06_Jun\01_DeMaryChuyParaMonica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A012BB89-A7B9-4B65-A174-18E0B14CB506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39CE2FA-1A24-4974-B089-0D4D919E012A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3A126976-81CC-4927-B736-8FF5B8573AA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A126976-81CC-4927-B736-8FF5B8573AA7}"/>
   </bookViews>
   <sheets>
     <sheet name="junio" sheetId="1" r:id="rId1"/>
@@ -1590,7 +1590,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1678,6 +1678,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1906,7 +1912,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2490,6 +2496,224 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2529,15 +2753,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2547,18 +2762,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2577,202 +2780,17 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2783,26 +2801,17 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3504,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E8332-6D5A-428C-95F2-0F05D1BFD024}">
   <dimension ref="A1:R209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D173" sqref="A173:XFD173"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A186" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I192" sqref="I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3549,11 +3558,11 @@
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="292" t="s">
+      <c r="G3" s="222" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
       <c r="J3" s="72"/>
       <c r="K3" s="72"/>
       <c r="L3" s="72"/>
@@ -3627,13 +3636,13 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A7" s="239" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="259" t="s">
+      <c r="A7" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="255" t="s">
+      <c r="C7" s="205" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="134" t="s">
@@ -3657,9 +3666,9 @@
       <c r="M7" s="146"/>
     </row>
     <row r="8" spans="1:17" ht="38.25" customHeight="1">
-      <c r="A8" s="240"/>
-      <c r="B8" s="273"/>
-      <c r="C8" s="256"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="206"/>
       <c r="D8" s="105" t="s">
         <v>155</v>
       </c>
@@ -3667,20 +3676,20 @@
       <c r="F8" s="74">
         <v>1</v>
       </c>
-      <c r="G8" s="203" t="s">
+      <c r="G8" s="277" t="s">
         <v>363</v>
       </c>
-      <c r="H8" s="204"/>
-      <c r="I8" s="205"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="279"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="33" customHeight="1">
-      <c r="A9" s="240"/>
-      <c r="B9" s="273"/>
-      <c r="C9" s="256"/>
+      <c r="A9" s="210"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="206"/>
       <c r="D9" s="106" t="s">
         <v>156</v>
       </c>
@@ -3699,28 +3708,28 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1">
-      <c r="A10" s="240"/>
-      <c r="B10" s="273"/>
-      <c r="C10" s="256"/>
+      <c r="A10" s="210"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="206"/>
       <c r="D10" s="105" t="s">
         <v>328</v>
       </c>
       <c r="E10" s="97"/>
-      <c r="F10" s="221" t="s">
+      <c r="F10" s="292" t="s">
         <v>282</v>
       </c>
-      <c r="G10" s="222"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="223"/>
+      <c r="G10" s="275"/>
+      <c r="H10" s="275"/>
+      <c r="I10" s="276"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A11" s="240"/>
-      <c r="B11" s="273"/>
-      <c r="C11" s="255" t="s">
+      <c r="A11" s="210"/>
+      <c r="B11" s="204"/>
+      <c r="C11" s="205" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="135" t="s">
@@ -3744,9 +3753,9 @@
       <c r="M11" s="146"/>
     </row>
     <row r="12" spans="1:17" ht="35.25" customHeight="1">
-      <c r="A12" s="240"/>
-      <c r="B12" s="273"/>
-      <c r="C12" s="256"/>
+      <c r="A12" s="210"/>
+      <c r="B12" s="204"/>
+      <c r="C12" s="206"/>
       <c r="D12" s="116" t="s">
         <v>158</v>
       </c>
@@ -3754,20 +3763,20 @@
       <c r="F12" s="74">
         <v>1</v>
       </c>
-      <c r="G12" s="226" t="s">
+      <c r="G12" s="293" t="s">
         <v>363</v>
       </c>
-      <c r="H12" s="227"/>
-      <c r="I12" s="228"/>
+      <c r="H12" s="294"/>
+      <c r="I12" s="295"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1">
-      <c r="A13" s="240"/>
-      <c r="B13" s="273"/>
-      <c r="C13" s="256"/>
+      <c r="A13" s="210"/>
+      <c r="B13" s="204"/>
+      <c r="C13" s="206"/>
       <c r="D13" s="116" t="s">
         <v>159</v>
       </c>
@@ -3775,18 +3784,18 @@
       <c r="F13" s="74">
         <v>1</v>
       </c>
-      <c r="G13" s="229"/>
-      <c r="H13" s="230"/>
-      <c r="I13" s="231"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="297"/>
+      <c r="I13" s="298"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A14" s="240"/>
-      <c r="B14" s="273"/>
-      <c r="C14" s="256"/>
+      <c r="A14" s="210"/>
+      <c r="B14" s="204"/>
+      <c r="C14" s="206"/>
       <c r="D14" s="106" t="s">
         <v>160</v>
       </c>
@@ -3805,11 +3814,11 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="21.75" customHeight="1">
-      <c r="A15" s="240"/>
-      <c r="B15" s="242" t="s">
+      <c r="A15" s="210"/>
+      <c r="B15" s="212" t="s">
         <v>356</v>
       </c>
-      <c r="C15" s="255" t="s">
+      <c r="C15" s="205" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="136" t="s">
@@ -3833,9 +3842,9 @@
       <c r="M15" s="146"/>
     </row>
     <row r="16" spans="1:17" ht="32.25" customHeight="1">
-      <c r="A16" s="240"/>
-      <c r="B16" s="243"/>
-      <c r="C16" s="256"/>
+      <c r="A16" s="210"/>
+      <c r="B16" s="213"/>
+      <c r="C16" s="206"/>
       <c r="D16" s="116" t="s">
         <v>75</v>
       </c>
@@ -3854,9 +3863,9 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A17" s="240"/>
-      <c r="B17" s="243"/>
-      <c r="C17" s="256"/>
+      <c r="A17" s="210"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="206"/>
       <c r="D17" s="116" t="s">
         <v>76</v>
       </c>
@@ -3875,9 +3884,9 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A18" s="240"/>
-      <c r="B18" s="243"/>
-      <c r="C18" s="256"/>
+      <c r="A18" s="210"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="206"/>
       <c r="D18" s="116" t="s">
         <v>77</v>
       </c>
@@ -3896,9 +3905,9 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A19" s="240"/>
-      <c r="B19" s="243"/>
-      <c r="C19" s="256"/>
+      <c r="A19" s="210"/>
+      <c r="B19" s="213"/>
+      <c r="C19" s="206"/>
       <c r="D19" s="116" t="s">
         <v>78</v>
       </c>
@@ -3917,9 +3926,9 @@
       <c r="M19" s="92"/>
     </row>
     <row r="20" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A20" s="240"/>
-      <c r="B20" s="243"/>
-      <c r="C20" s="252" t="s">
+      <c r="A20" s="210"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="214" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="135" t="s">
@@ -3943,9 +3952,9 @@
       <c r="M20" s="146"/>
     </row>
     <row r="21" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A21" s="240"/>
-      <c r="B21" s="243"/>
-      <c r="C21" s="253"/>
+      <c r="A21" s="210"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="215"/>
       <c r="D21" s="116" t="s">
         <v>80</v>
       </c>
@@ -3964,9 +3973,9 @@
       <c r="M21" s="92"/>
     </row>
     <row r="22" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A22" s="240"/>
-      <c r="B22" s="243"/>
-      <c r="C22" s="253"/>
+      <c r="A22" s="210"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="215"/>
       <c r="D22" s="116" t="s">
         <v>81</v>
       </c>
@@ -3985,9 +3994,9 @@
       <c r="M22" s="92"/>
     </row>
     <row r="23" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A23" s="240"/>
-      <c r="B23" s="243"/>
-      <c r="C23" s="253"/>
+      <c r="A23" s="210"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="215"/>
       <c r="D23" s="116" t="s">
         <v>329</v>
       </c>
@@ -4006,9 +4015,9 @@
       <c r="M23" s="92"/>
     </row>
     <row r="24" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A24" s="240"/>
-      <c r="B24" s="243"/>
-      <c r="C24" s="253"/>
+      <c r="A24" s="210"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="215"/>
       <c r="D24" s="116" t="s">
         <v>83</v>
       </c>
@@ -4027,9 +4036,9 @@
       <c r="M24" s="92"/>
     </row>
     <row r="25" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A25" s="297"/>
-      <c r="B25" s="297"/>
-      <c r="C25" s="254"/>
+      <c r="A25" s="211"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="216"/>
       <c r="D25" s="106" t="s">
         <v>162</v>
       </c>
@@ -4048,13 +4057,13 @@
       <c r="M25" s="92"/>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="239" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="242" t="s">
+      <c r="A26" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="245" t="s">
+      <c r="C26" s="207" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="136" t="s">
@@ -4078,9 +4087,9 @@
       <c r="M26" s="146"/>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1">
-      <c r="A27" s="240"/>
-      <c r="B27" s="243"/>
-      <c r="C27" s="298"/>
+      <c r="A27" s="210"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="218"/>
       <c r="D27" s="111" t="s">
         <v>85</v>
       </c>
@@ -4099,9 +4108,9 @@
       <c r="M27" s="92"/>
     </row>
     <row r="28" spans="1:13" ht="33" customHeight="1">
-      <c r="A28" s="240"/>
-      <c r="B28" s="243"/>
-      <c r="C28" s="298"/>
+      <c r="A28" s="210"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="218"/>
       <c r="D28" s="111" t="s">
         <v>164</v>
       </c>
@@ -4120,9 +4129,9 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
-      <c r="A29" s="240"/>
-      <c r="B29" s="243"/>
-      <c r="C29" s="298"/>
+      <c r="A29" s="210"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="218"/>
       <c r="D29" s="111" t="s">
         <v>165</v>
       </c>
@@ -4141,9 +4150,9 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A30" s="240"/>
-      <c r="B30" s="243"/>
-      <c r="C30" s="255" t="s">
+      <c r="A30" s="210"/>
+      <c r="B30" s="213"/>
+      <c r="C30" s="205" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="136" t="s">
@@ -4167,9 +4176,9 @@
       <c r="M30" s="146"/>
     </row>
     <row r="31" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A31" s="240"/>
-      <c r="B31" s="243"/>
-      <c r="C31" s="256"/>
+      <c r="A31" s="210"/>
+      <c r="B31" s="213"/>
+      <c r="C31" s="206"/>
       <c r="D31" s="111" t="s">
         <v>295</v>
       </c>
@@ -4188,9 +4197,9 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A32" s="240"/>
-      <c r="B32" s="243"/>
-      <c r="C32" s="256"/>
+      <c r="A32" s="210"/>
+      <c r="B32" s="213"/>
+      <c r="C32" s="206"/>
       <c r="D32" s="111" t="s">
         <v>294</v>
       </c>
@@ -4209,9 +4218,9 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="42" customHeight="1">
-      <c r="A33" s="240"/>
-      <c r="B33" s="243"/>
-      <c r="C33" s="256"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="213"/>
+      <c r="C33" s="206"/>
       <c r="D33" s="111" t="s">
         <v>330</v>
       </c>
@@ -4230,9 +4239,9 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="57.75" customHeight="1">
-      <c r="A34" s="240"/>
-      <c r="B34" s="243"/>
-      <c r="C34" s="247" t="s">
+      <c r="A34" s="210"/>
+      <c r="B34" s="213"/>
+      <c r="C34" s="219" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="136" t="s">
@@ -4256,9 +4265,9 @@
       <c r="M34" s="146"/>
     </row>
     <row r="35" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A35" s="240"/>
-      <c r="B35" s="243"/>
-      <c r="C35" s="248"/>
+      <c r="A35" s="210"/>
+      <c r="B35" s="213"/>
+      <c r="C35" s="220"/>
       <c r="D35" s="115" t="s">
         <v>296</v>
       </c>
@@ -4277,9 +4286,9 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
-      <c r="A36" s="240"/>
-      <c r="B36" s="243"/>
-      <c r="C36" s="248"/>
+      <c r="A36" s="210"/>
+      <c r="B36" s="213"/>
+      <c r="C36" s="220"/>
       <c r="D36" s="115" t="s">
         <v>297</v>
       </c>
@@ -4298,9 +4307,9 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A37" s="240"/>
-      <c r="B37" s="243"/>
-      <c r="C37" s="248"/>
+      <c r="A37" s="210"/>
+      <c r="B37" s="213"/>
+      <c r="C37" s="220"/>
       <c r="D37" s="115" t="s">
         <v>55</v>
       </c>
@@ -4319,9 +4328,9 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A38" s="240"/>
-      <c r="B38" s="243"/>
-      <c r="C38" s="249"/>
+      <c r="A38" s="210"/>
+      <c r="B38" s="213"/>
+      <c r="C38" s="221"/>
       <c r="D38" s="115" t="s">
         <v>298</v>
       </c>
@@ -4340,9 +4349,9 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A39" s="240"/>
-      <c r="B39" s="243"/>
-      <c r="C39" s="255" t="s">
+      <c r="A39" s="210"/>
+      <c r="B39" s="213"/>
+      <c r="C39" s="205" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="136" t="s">
@@ -4366,9 +4375,9 @@
       <c r="M39" s="146"/>
     </row>
     <row r="40" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A40" s="240"/>
-      <c r="B40" s="243"/>
-      <c r="C40" s="256"/>
+      <c r="A40" s="210"/>
+      <c r="B40" s="213"/>
+      <c r="C40" s="206"/>
       <c r="D40" s="111" t="s">
         <v>56</v>
       </c>
@@ -4387,9 +4396,9 @@
       <c r="M40" s="92"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A41" s="240"/>
-      <c r="B41" s="243"/>
-      <c r="C41" s="256"/>
+      <c r="A41" s="210"/>
+      <c r="B41" s="213"/>
+      <c r="C41" s="206"/>
       <c r="D41" s="111" t="s">
         <v>92</v>
       </c>
@@ -4408,45 +4417,45 @@
       <c r="M41" s="92"/>
     </row>
     <row r="42" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A42" s="240"/>
-      <c r="B42" s="243"/>
-      <c r="C42" s="256"/>
+      <c r="A42" s="210"/>
+      <c r="B42" s="213"/>
+      <c r="C42" s="206"/>
       <c r="D42" s="111" t="s">
         <v>57</v>
       </c>
       <c r="E42" s="182"/>
-      <c r="F42" s="206" t="s">
+      <c r="F42" s="280" t="s">
         <v>364</v>
       </c>
-      <c r="G42" s="207"/>
-      <c r="H42" s="207"/>
-      <c r="I42" s="208"/>
+      <c r="G42" s="281"/>
+      <c r="H42" s="281"/>
+      <c r="I42" s="282"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="92"/>
     </row>
     <row r="43" spans="1:13" ht="25.5">
-      <c r="A43" s="240"/>
-      <c r="B43" s="243"/>
-      <c r="C43" s="256"/>
+      <c r="A43" s="210"/>
+      <c r="B43" s="213"/>
+      <c r="C43" s="206"/>
       <c r="D43" s="111" t="s">
         <v>93</v>
       </c>
       <c r="E43" s="182"/>
-      <c r="F43" s="209"/>
-      <c r="G43" s="210"/>
-      <c r="H43" s="210"/>
-      <c r="I43" s="211"/>
+      <c r="F43" s="283"/>
+      <c r="G43" s="284"/>
+      <c r="H43" s="284"/>
+      <c r="I43" s="285"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="92"/>
     </row>
     <row r="44" spans="1:13" ht="38.25">
-      <c r="A44" s="240"/>
-      <c r="B44" s="243"/>
-      <c r="C44" s="255" t="s">
+      <c r="A44" s="210"/>
+      <c r="B44" s="213"/>
+      <c r="C44" s="205" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="148" t="s">
@@ -4470,9 +4479,9 @@
       <c r="M44" s="146"/>
     </row>
     <row r="45" spans="1:13" ht="21" customHeight="1">
-      <c r="A45" s="240"/>
-      <c r="B45" s="243"/>
-      <c r="C45" s="256"/>
+      <c r="A45" s="210"/>
+      <c r="B45" s="213"/>
+      <c r="C45" s="206"/>
       <c r="D45" s="115" t="s">
         <v>338</v>
       </c>
@@ -4491,49 +4500,49 @@
       <c r="M45" s="92"/>
     </row>
     <row r="46" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A46" s="240"/>
-      <c r="B46" s="243"/>
-      <c r="C46" s="256"/>
+      <c r="A46" s="210"/>
+      <c r="B46" s="213"/>
+      <c r="C46" s="206"/>
       <c r="D46" s="115" t="s">
         <v>339</v>
       </c>
       <c r="E46" s="184"/>
       <c r="F46" s="184"/>
-      <c r="G46" s="224" t="s">
+      <c r="G46" s="273" t="s">
         <v>283</v>
       </c>
-      <c r="H46" s="224"/>
-      <c r="I46" s="225"/>
+      <c r="H46" s="273"/>
+      <c r="I46" s="274"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="92"/>
     </row>
     <row r="47" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A47" s="240"/>
-      <c r="B47" s="243"/>
-      <c r="C47" s="256"/>
+      <c r="A47" s="210"/>
+      <c r="B47" s="213"/>
+      <c r="C47" s="206"/>
       <c r="D47" s="115" t="s">
         <v>172</v>
       </c>
       <c r="E47" s="184"/>
       <c r="F47" s="184"/>
-      <c r="G47" s="224" t="s">
+      <c r="G47" s="273" t="s">
         <v>284</v>
       </c>
-      <c r="H47" s="224"/>
-      <c r="I47" s="225"/>
+      <c r="H47" s="273"/>
+      <c r="I47" s="274"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="92"/>
     </row>
     <row r="48" spans="1:13" ht="34.5" customHeight="1">
-      <c r="A48" s="240"/>
-      <c r="B48" s="236" t="s">
+      <c r="A48" s="210"/>
+      <c r="B48" s="254" t="s">
         <v>289</v>
       </c>
-      <c r="C48" s="255" t="s">
+      <c r="C48" s="205" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="135" t="s">
@@ -4557,9 +4566,9 @@
       <c r="M48" s="146"/>
     </row>
     <row r="49" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A49" s="240"/>
-      <c r="B49" s="236"/>
-      <c r="C49" s="256"/>
+      <c r="A49" s="210"/>
+      <c r="B49" s="254"/>
+      <c r="C49" s="206"/>
       <c r="D49" s="115" t="s">
         <v>300</v>
       </c>
@@ -4578,9 +4587,9 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A50" s="240"/>
-      <c r="B50" s="236"/>
-      <c r="C50" s="256"/>
+      <c r="A50" s="210"/>
+      <c r="B50" s="254"/>
+      <c r="C50" s="206"/>
       <c r="D50" s="115" t="s">
         <v>299</v>
       </c>
@@ -4599,9 +4608,9 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A51" s="240"/>
-      <c r="B51" s="236"/>
-      <c r="C51" s="256"/>
+      <c r="A51" s="210"/>
+      <c r="B51" s="254"/>
+      <c r="C51" s="206"/>
       <c r="D51" s="115" t="s">
         <v>68</v>
       </c>
@@ -4620,11 +4629,11 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13" ht="15.75">
-      <c r="A52" s="240"/>
-      <c r="B52" s="259" t="s">
+      <c r="A52" s="210"/>
+      <c r="B52" s="203" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="255" t="s">
+      <c r="C52" s="205" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="135" t="s">
@@ -4648,9 +4657,9 @@
       <c r="M52" s="146"/>
     </row>
     <row r="53" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A53" s="240"/>
-      <c r="B53" s="273"/>
-      <c r="C53" s="256"/>
+      <c r="A53" s="210"/>
+      <c r="B53" s="204"/>
+      <c r="C53" s="206"/>
       <c r="D53" s="115" t="s">
         <v>303</v>
       </c>
@@ -4669,9 +4678,9 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A54" s="240"/>
-      <c r="B54" s="273"/>
-      <c r="C54" s="256"/>
+      <c r="A54" s="210"/>
+      <c r="B54" s="204"/>
+      <c r="C54" s="206"/>
       <c r="D54" s="111" t="s">
         <v>304</v>
       </c>
@@ -4690,9 +4699,9 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A55" s="240"/>
-      <c r="B55" s="273"/>
-      <c r="C55" s="256"/>
+      <c r="A55" s="210"/>
+      <c r="B55" s="204"/>
+      <c r="C55" s="206"/>
       <c r="D55" s="106" t="s">
         <v>305</v>
       </c>
@@ -4711,9 +4720,9 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13" ht="38.25">
-      <c r="A56" s="240"/>
-      <c r="B56" s="273"/>
-      <c r="C56" s="255" t="s">
+      <c r="A56" s="210"/>
+      <c r="B56" s="204"/>
+      <c r="C56" s="205" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="136" t="s">
@@ -4733,81 +4742,81 @@
       <c r="M56" s="95"/>
     </row>
     <row r="57" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A57" s="240"/>
-      <c r="B57" s="273"/>
-      <c r="C57" s="256"/>
+      <c r="A57" s="210"/>
+      <c r="B57" s="204"/>
+      <c r="C57" s="206"/>
       <c r="D57" s="106" t="s">
         <v>308</v>
       </c>
       <c r="E57" s="185"/>
       <c r="F57" s="185"/>
-      <c r="G57" s="261" t="s">
+      <c r="G57" s="263" t="s">
         <v>285</v>
       </c>
-      <c r="H57" s="261"/>
-      <c r="I57" s="262"/>
+      <c r="H57" s="263"/>
+      <c r="I57" s="264"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1">
-      <c r="A58" s="240"/>
-      <c r="B58" s="273"/>
-      <c r="C58" s="256"/>
+      <c r="A58" s="210"/>
+      <c r="B58" s="204"/>
+      <c r="C58" s="206"/>
       <c r="D58" s="106" t="s">
         <v>309</v>
       </c>
       <c r="E58" s="185"/>
       <c r="F58" s="185"/>
-      <c r="G58" s="263"/>
-      <c r="H58" s="263"/>
-      <c r="I58" s="264"/>
+      <c r="G58" s="265"/>
+      <c r="H58" s="265"/>
+      <c r="I58" s="266"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A59" s="240"/>
-      <c r="B59" s="273"/>
-      <c r="C59" s="256"/>
+      <c r="A59" s="210"/>
+      <c r="B59" s="204"/>
+      <c r="C59" s="206"/>
       <c r="D59" s="106" t="s">
         <v>310</v>
       </c>
       <c r="E59" s="185"/>
       <c r="F59" s="185"/>
-      <c r="G59" s="263"/>
-      <c r="H59" s="263"/>
-      <c r="I59" s="264"/>
+      <c r="G59" s="265"/>
+      <c r="H59" s="265"/>
+      <c r="I59" s="266"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A60" s="240"/>
-      <c r="B60" s="273"/>
-      <c r="C60" s="256"/>
+      <c r="A60" s="210"/>
+      <c r="B60" s="204"/>
+      <c r="C60" s="206"/>
       <c r="D60" s="105" t="s">
         <v>307</v>
       </c>
       <c r="E60" s="185"/>
       <c r="F60" s="185"/>
-      <c r="G60" s="265"/>
-      <c r="H60" s="265"/>
-      <c r="I60" s="266"/>
+      <c r="G60" s="267"/>
+      <c r="H60" s="267"/>
+      <c r="I60" s="268"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:13" ht="51">
-      <c r="A61" s="240"/>
-      <c r="B61" s="259" t="s">
+      <c r="A61" s="210"/>
+      <c r="B61" s="203" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="252" t="s">
+      <c r="C61" s="214" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="134" t="s">
@@ -4831,9 +4840,9 @@
       <c r="M61" s="146"/>
     </row>
     <row r="62" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A62" s="240"/>
-      <c r="B62" s="273"/>
-      <c r="C62" s="253"/>
+      <c r="A62" s="210"/>
+      <c r="B62" s="204"/>
+      <c r="C62" s="215"/>
       <c r="D62" s="106" t="s">
         <v>312</v>
       </c>
@@ -4841,20 +4850,20 @@
       <c r="F62" s="75">
         <v>1</v>
       </c>
-      <c r="G62" s="216" t="s">
+      <c r="G62" s="235" t="s">
         <v>354</v>
       </c>
-      <c r="H62" s="217"/>
-      <c r="I62" s="218"/>
+      <c r="H62" s="236"/>
+      <c r="I62" s="237"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13" ht="25.5">
-      <c r="A63" s="240"/>
-      <c r="B63" s="273"/>
-      <c r="C63" s="253"/>
+      <c r="A63" s="210"/>
+      <c r="B63" s="204"/>
+      <c r="C63" s="215"/>
       <c r="D63" s="116" t="s">
         <v>313</v>
       </c>
@@ -4873,9 +4882,9 @@
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13" ht="25.5">
-      <c r="A64" s="240"/>
-      <c r="B64" s="273"/>
-      <c r="C64" s="253"/>
+      <c r="A64" s="210"/>
+      <c r="B64" s="204"/>
+      <c r="C64" s="215"/>
       <c r="D64" s="106" t="s">
         <v>314</v>
       </c>
@@ -4894,9 +4903,9 @@
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13" ht="38.25">
-      <c r="A65" s="240"/>
-      <c r="B65" s="273"/>
-      <c r="C65" s="296"/>
+      <c r="A65" s="210"/>
+      <c r="B65" s="204"/>
+      <c r="C65" s="226"/>
       <c r="D65" s="106" t="s">
         <v>315</v>
       </c>
@@ -4915,47 +4924,47 @@
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13" ht="25.5">
-      <c r="A66" s="240"/>
-      <c r="B66" s="273"/>
-      <c r="C66" s="296"/>
+      <c r="A66" s="210"/>
+      <c r="B66" s="204"/>
+      <c r="C66" s="226"/>
       <c r="D66" s="116" t="s">
         <v>316</v>
       </c>
       <c r="E66" s="192"/>
       <c r="F66" s="192"/>
-      <c r="G66" s="267" t="s">
+      <c r="G66" s="269" t="s">
         <v>285</v>
       </c>
-      <c r="H66" s="267"/>
-      <c r="I66" s="268"/>
+      <c r="H66" s="269"/>
+      <c r="I66" s="270"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1">
-      <c r="A67" s="240"/>
-      <c r="B67" s="273"/>
-      <c r="C67" s="254"/>
+      <c r="A67" s="210"/>
+      <c r="B67" s="204"/>
+      <c r="C67" s="216"/>
       <c r="D67" s="116" t="s">
         <v>317</v>
       </c>
       <c r="E67" s="193"/>
       <c r="F67" s="193"/>
-      <c r="G67" s="269" t="s">
+      <c r="G67" s="271" t="s">
         <v>285</v>
       </c>
-      <c r="H67" s="269"/>
-      <c r="I67" s="270"/>
+      <c r="H67" s="271"/>
+      <c r="I67" s="272"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:13" ht="30" customHeight="1">
-      <c r="A68" s="240"/>
-      <c r="B68" s="273"/>
-      <c r="C68" s="257" t="s">
+      <c r="A68" s="210"/>
+      <c r="B68" s="204"/>
+      <c r="C68" s="260" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="135" t="s">
@@ -4979,9 +4988,9 @@
       <c r="M68" s="146"/>
     </row>
     <row r="69" spans="1:13" ht="25.5">
-      <c r="A69" s="240"/>
-      <c r="B69" s="273"/>
-      <c r="C69" s="258"/>
+      <c r="A69" s="210"/>
+      <c r="B69" s="204"/>
+      <c r="C69" s="261"/>
       <c r="D69" s="105" t="s">
         <v>319</v>
       </c>
@@ -4989,20 +4998,20 @@
       <c r="F69" s="75">
         <v>1</v>
       </c>
-      <c r="G69" s="216" t="s">
+      <c r="G69" s="235" t="s">
         <v>357</v>
       </c>
-      <c r="H69" s="217"/>
-      <c r="I69" s="218"/>
+      <c r="H69" s="236"/>
+      <c r="I69" s="237"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13" ht="25.5">
-      <c r="A70" s="240"/>
-      <c r="B70" s="273"/>
-      <c r="C70" s="258"/>
+      <c r="A70" s="210"/>
+      <c r="B70" s="204"/>
+      <c r="C70" s="261"/>
       <c r="D70" s="106" t="s">
         <v>320</v>
       </c>
@@ -5021,9 +5030,9 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" ht="25.5">
-      <c r="A71" s="240"/>
-      <c r="B71" s="273"/>
-      <c r="C71" s="258"/>
+      <c r="A71" s="210"/>
+      <c r="B71" s="204"/>
+      <c r="C71" s="261"/>
       <c r="D71" s="106" t="s">
         <v>321</v>
       </c>
@@ -5042,9 +5051,9 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13" ht="45" customHeight="1">
-      <c r="A72" s="240"/>
-      <c r="B72" s="273"/>
-      <c r="C72" s="255" t="s">
+      <c r="A72" s="210"/>
+      <c r="B72" s="204"/>
+      <c r="C72" s="205" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="136" t="s">
@@ -5068,9 +5077,9 @@
       <c r="M72" s="146"/>
     </row>
     <row r="73" spans="1:13" ht="30" customHeight="1">
-      <c r="A73" s="240"/>
-      <c r="B73" s="273"/>
-      <c r="C73" s="256"/>
+      <c r="A73" s="210"/>
+      <c r="B73" s="204"/>
+      <c r="C73" s="206"/>
       <c r="D73" s="106" t="s">
         <v>323</v>
       </c>
@@ -5078,20 +5087,20 @@
       <c r="F73" s="132">
         <v>1</v>
       </c>
-      <c r="G73" s="274" t="s">
+      <c r="G73" s="229" t="s">
         <v>354</v>
       </c>
-      <c r="H73" s="275"/>
-      <c r="I73" s="276"/>
+      <c r="H73" s="230"/>
+      <c r="I73" s="231"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13" ht="18" customHeight="1">
-      <c r="A74" s="240"/>
-      <c r="B74" s="273"/>
-      <c r="C74" s="256"/>
+      <c r="A74" s="210"/>
+      <c r="B74" s="204"/>
+      <c r="C74" s="206"/>
       <c r="D74" s="116" t="s">
         <v>316</v>
       </c>
@@ -5099,18 +5108,18 @@
       <c r="F74" s="132">
         <v>1</v>
       </c>
-      <c r="G74" s="277"/>
-      <c r="H74" s="278"/>
-      <c r="I74" s="279"/>
+      <c r="G74" s="232"/>
+      <c r="H74" s="233"/>
+      <c r="I74" s="234"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A75" s="241"/>
-      <c r="B75" s="273"/>
-      <c r="C75" s="256"/>
+      <c r="A75" s="217"/>
+      <c r="B75" s="204"/>
+      <c r="C75" s="206"/>
       <c r="D75" s="106" t="s">
         <v>324</v>
       </c>
@@ -5129,13 +5138,13 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1">
-      <c r="A76" s="239" t="s">
+      <c r="A76" s="209" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="259" t="s">
+      <c r="B76" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="255" t="s">
+      <c r="C76" s="205" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="135" t="s">
@@ -5159,9 +5168,9 @@
       <c r="M76" s="146"/>
     </row>
     <row r="77" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A77" s="240"/>
-      <c r="B77" s="273"/>
-      <c r="C77" s="256"/>
+      <c r="A77" s="210"/>
+      <c r="B77" s="204"/>
+      <c r="C77" s="206"/>
       <c r="D77" s="118" t="s">
         <v>193</v>
       </c>
@@ -5180,9 +5189,9 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A78" s="240"/>
-      <c r="B78" s="273"/>
-      <c r="C78" s="256"/>
+      <c r="A78" s="210"/>
+      <c r="B78" s="204"/>
+      <c r="C78" s="206"/>
       <c r="D78" s="118" t="s">
         <v>103</v>
       </c>
@@ -5201,9 +5210,9 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13" ht="18" customHeight="1">
-      <c r="A79" s="240"/>
-      <c r="B79" s="273"/>
-      <c r="C79" s="256"/>
+      <c r="A79" s="210"/>
+      <c r="B79" s="204"/>
+      <c r="C79" s="206"/>
       <c r="D79" s="118" t="s">
         <v>104</v>
       </c>
@@ -5222,9 +5231,9 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:13" ht="25.5">
-      <c r="A80" s="240"/>
-      <c r="B80" s="273"/>
-      <c r="C80" s="255" t="s">
+      <c r="A80" s="210"/>
+      <c r="B80" s="204"/>
+      <c r="C80" s="205" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="135" t="s">
@@ -5248,9 +5257,9 @@
       <c r="M80" s="95"/>
     </row>
     <row r="81" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A81" s="240"/>
-      <c r="B81" s="273"/>
-      <c r="C81" s="256"/>
+      <c r="A81" s="210"/>
+      <c r="B81" s="204"/>
+      <c r="C81" s="206"/>
       <c r="D81" s="118" t="s">
         <v>59</v>
       </c>
@@ -5269,9 +5278,9 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A82" s="240"/>
-      <c r="B82" s="273"/>
-      <c r="C82" s="256"/>
+      <c r="A82" s="210"/>
+      <c r="B82" s="204"/>
+      <c r="C82" s="206"/>
       <c r="D82" s="118" t="s">
         <v>106</v>
       </c>
@@ -5290,28 +5299,28 @@
       <c r="M82" s="92"/>
     </row>
     <row r="83" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A83" s="240"/>
-      <c r="B83" s="273"/>
-      <c r="C83" s="256"/>
+      <c r="A83" s="210"/>
+      <c r="B83" s="204"/>
+      <c r="C83" s="206"/>
       <c r="D83" s="118" t="s">
         <v>107</v>
       </c>
       <c r="E83" s="183"/>
       <c r="F83" s="183"/>
-      <c r="G83" s="280" t="s">
+      <c r="G83" s="238" t="s">
         <v>282</v>
       </c>
-      <c r="H83" s="280"/>
-      <c r="I83" s="281"/>
+      <c r="H83" s="238"/>
+      <c r="I83" s="239"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="92"/>
     </row>
     <row r="84" spans="1:13" ht="25.5">
-      <c r="A84" s="240"/>
-      <c r="B84" s="273"/>
-      <c r="C84" s="245" t="s">
+      <c r="A84" s="210"/>
+      <c r="B84" s="204"/>
+      <c r="C84" s="207" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="137" t="s">
@@ -5335,9 +5344,9 @@
       <c r="M84" s="146"/>
     </row>
     <row r="85" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A85" s="240"/>
-      <c r="B85" s="273"/>
-      <c r="C85" s="246"/>
+      <c r="A85" s="210"/>
+      <c r="B85" s="204"/>
+      <c r="C85" s="208"/>
       <c r="D85" s="118" t="s">
         <v>331</v>
       </c>
@@ -5356,28 +5365,28 @@
       <c r="M85" s="92"/>
     </row>
     <row r="86" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A86" s="240"/>
-      <c r="B86" s="273"/>
-      <c r="C86" s="246"/>
+      <c r="A86" s="210"/>
+      <c r="B86" s="204"/>
+      <c r="C86" s="208"/>
       <c r="D86" s="118" t="s">
         <v>195</v>
       </c>
       <c r="E86" s="185"/>
       <c r="F86" s="185"/>
-      <c r="G86" s="232" t="s">
+      <c r="G86" s="240" t="s">
         <v>282</v>
       </c>
-      <c r="H86" s="232"/>
-      <c r="I86" s="233"/>
+      <c r="H86" s="240"/>
+      <c r="I86" s="241"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="92"/>
     </row>
     <row r="87" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A87" s="240"/>
-      <c r="B87" s="273"/>
-      <c r="C87" s="246"/>
+      <c r="A87" s="210"/>
+      <c r="B87" s="204"/>
+      <c r="C87" s="208"/>
       <c r="D87" s="106" t="s">
         <v>196</v>
       </c>
@@ -5396,9 +5405,9 @@
       <c r="M87" s="92"/>
     </row>
     <row r="88" spans="1:13" ht="42" customHeight="1">
-      <c r="A88" s="240"/>
-      <c r="B88" s="273"/>
-      <c r="C88" s="246"/>
+      <c r="A88" s="210"/>
+      <c r="B88" s="204"/>
+      <c r="C88" s="208"/>
       <c r="D88" s="116" t="s">
         <v>58</v>
       </c>
@@ -5417,9 +5426,9 @@
       <c r="M88" s="92"/>
     </row>
     <row r="89" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A89" s="240"/>
-      <c r="B89" s="273"/>
-      <c r="C89" s="246"/>
+      <c r="A89" s="210"/>
+      <c r="B89" s="204"/>
+      <c r="C89" s="208"/>
       <c r="D89" s="106" t="s">
         <v>197</v>
       </c>
@@ -5438,13 +5447,13 @@
       <c r="M89" s="92"/>
     </row>
     <row r="90" spans="1:13" ht="38.25">
-      <c r="A90" s="239" t="s">
+      <c r="A90" s="209" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="259" t="s">
+      <c r="B90" s="203" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="245" t="s">
+      <c r="C90" s="207" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="136" t="s">
@@ -5468,9 +5477,9 @@
       <c r="M90" s="146"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="240"/>
-      <c r="B91" s="273"/>
-      <c r="C91" s="246"/>
+      <c r="A91" s="210"/>
+      <c r="B91" s="204"/>
+      <c r="C91" s="208"/>
       <c r="D91" s="116" t="s">
         <v>110</v>
       </c>
@@ -5478,20 +5487,20 @@
       <c r="F91" s="75">
         <v>1</v>
       </c>
-      <c r="G91" s="216" t="s">
+      <c r="G91" s="235" t="s">
         <v>354</v>
       </c>
-      <c r="H91" s="217"/>
-      <c r="I91" s="218"/>
+      <c r="H91" s="236"/>
+      <c r="I91" s="237"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="92"/>
     </row>
     <row r="92" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A92" s="240"/>
-      <c r="B92" s="273"/>
-      <c r="C92" s="246"/>
+      <c r="A92" s="210"/>
+      <c r="B92" s="204"/>
+      <c r="C92" s="208"/>
       <c r="D92" s="116" t="s">
         <v>198</v>
       </c>
@@ -5510,9 +5519,9 @@
       <c r="M92" s="92"/>
     </row>
     <row r="93" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A93" s="240"/>
-      <c r="B93" s="273"/>
-      <c r="C93" s="246"/>
+      <c r="A93" s="210"/>
+      <c r="B93" s="204"/>
+      <c r="C93" s="208"/>
       <c r="D93" s="116" t="s">
         <v>60</v>
       </c>
@@ -5531,9 +5540,9 @@
       <c r="M93" s="92"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="240"/>
-      <c r="B94" s="273"/>
-      <c r="C94" s="245" t="s">
+      <c r="A94" s="210"/>
+      <c r="B94" s="204"/>
+      <c r="C94" s="207" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="136" t="s">
@@ -5557,9 +5566,9 @@
       <c r="M94" s="146"/>
     </row>
     <row r="95" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A95" s="240"/>
-      <c r="B95" s="273"/>
-      <c r="C95" s="246"/>
+      <c r="A95" s="210"/>
+      <c r="B95" s="204"/>
+      <c r="C95" s="208"/>
       <c r="D95" s="116" t="s">
         <v>200</v>
       </c>
@@ -5567,20 +5576,20 @@
       <c r="F95" s="75">
         <v>1</v>
       </c>
-      <c r="G95" s="216" t="s">
+      <c r="G95" s="235" t="s">
         <v>354</v>
       </c>
-      <c r="H95" s="217"/>
-      <c r="I95" s="218"/>
+      <c r="H95" s="236"/>
+      <c r="I95" s="237"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="92"/>
     </row>
     <row r="96" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A96" s="240"/>
-      <c r="B96" s="273"/>
-      <c r="C96" s="246"/>
+      <c r="A96" s="210"/>
+      <c r="B96" s="204"/>
+      <c r="C96" s="208"/>
       <c r="D96" s="116" t="s">
         <v>201</v>
       </c>
@@ -5599,28 +5608,28 @@
       <c r="M96" s="92"/>
     </row>
     <row r="97" spans="1:13" ht="30" customHeight="1">
-      <c r="A97" s="240"/>
-      <c r="B97" s="273"/>
-      <c r="C97" s="246"/>
+      <c r="A97" s="210"/>
+      <c r="B97" s="204"/>
+      <c r="C97" s="208"/>
       <c r="D97" s="116" t="s">
         <v>202</v>
       </c>
       <c r="E97" s="185"/>
       <c r="F97" s="185"/>
-      <c r="G97" s="232" t="s">
+      <c r="G97" s="240" t="s">
         <v>286</v>
       </c>
-      <c r="H97" s="232"/>
-      <c r="I97" s="233"/>
+      <c r="H97" s="240"/>
+      <c r="I97" s="241"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="92"/>
     </row>
     <row r="98" spans="1:13" ht="38.25">
-      <c r="A98" s="240"/>
-      <c r="B98" s="273"/>
-      <c r="C98" s="245" t="s">
+      <c r="A98" s="210"/>
+      <c r="B98" s="204"/>
+      <c r="C98" s="207" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="136" t="s">
@@ -5644,9 +5653,9 @@
       <c r="M98" s="146"/>
     </row>
     <row r="99" spans="1:13" ht="30" customHeight="1">
-      <c r="A99" s="240"/>
-      <c r="B99" s="273"/>
-      <c r="C99" s="246"/>
+      <c r="A99" s="210"/>
+      <c r="B99" s="204"/>
+      <c r="C99" s="208"/>
       <c r="D99" s="116" t="s">
         <v>61</v>
       </c>
@@ -5654,20 +5663,20 @@
       <c r="F99" s="75">
         <v>1</v>
       </c>
-      <c r="G99" s="216" t="s">
+      <c r="G99" s="235" t="s">
         <v>357</v>
       </c>
-      <c r="H99" s="217"/>
-      <c r="I99" s="218"/>
+      <c r="H99" s="236"/>
+      <c r="I99" s="237"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="92"/>
     </row>
     <row r="100" spans="1:13" ht="30" customHeight="1">
-      <c r="A100" s="240"/>
-      <c r="B100" s="273"/>
-      <c r="C100" s="246"/>
+      <c r="A100" s="210"/>
+      <c r="B100" s="204"/>
+      <c r="C100" s="208"/>
       <c r="D100" s="116" t="s">
         <v>62</v>
       </c>
@@ -5686,28 +5695,28 @@
       <c r="M100" s="92"/>
     </row>
     <row r="101" spans="1:13" ht="42" customHeight="1">
-      <c r="A101" s="240"/>
-      <c r="B101" s="273"/>
-      <c r="C101" s="246"/>
+      <c r="A101" s="210"/>
+      <c r="B101" s="204"/>
+      <c r="C101" s="208"/>
       <c r="D101" s="116" t="s">
         <v>63</v>
       </c>
       <c r="E101" s="187"/>
       <c r="F101" s="187"/>
-      <c r="G101" s="219" t="s">
+      <c r="G101" s="290" t="s">
         <v>285</v>
       </c>
-      <c r="H101" s="219"/>
-      <c r="I101" s="220"/>
+      <c r="H101" s="290"/>
+      <c r="I101" s="291"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="1:13" ht="63.75">
-      <c r="A102" s="240"/>
-      <c r="B102" s="273"/>
-      <c r="C102" s="245" t="s">
+      <c r="A102" s="210"/>
+      <c r="B102" s="204"/>
+      <c r="C102" s="207" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="136" t="s">
@@ -5731,9 +5740,9 @@
       <c r="M102" s="146"/>
     </row>
     <row r="103" spans="1:13" ht="25.5">
-      <c r="A103" s="240"/>
-      <c r="B103" s="273"/>
-      <c r="C103" s="246"/>
+      <c r="A103" s="210"/>
+      <c r="B103" s="204"/>
+      <c r="C103" s="208"/>
       <c r="D103" s="116" t="s">
         <v>204</v>
       </c>
@@ -5752,45 +5761,45 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A104" s="240"/>
-      <c r="B104" s="273"/>
-      <c r="C104" s="246"/>
+      <c r="A104" s="210"/>
+      <c r="B104" s="204"/>
+      <c r="C104" s="208"/>
       <c r="D104" s="116" t="s">
         <v>205</v>
       </c>
       <c r="E104" s="188"/>
       <c r="F104" s="188"/>
-      <c r="G104" s="212" t="s">
+      <c r="G104" s="286" t="s">
         <v>364</v>
       </c>
-      <c r="H104" s="207"/>
-      <c r="I104" s="208"/>
+      <c r="H104" s="281"/>
+      <c r="I104" s="282"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="92"/>
     </row>
     <row r="105" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A105" s="240"/>
-      <c r="B105" s="273"/>
-      <c r="C105" s="246"/>
+      <c r="A105" s="210"/>
+      <c r="B105" s="204"/>
+      <c r="C105" s="208"/>
       <c r="D105" s="116" t="s">
         <v>206</v>
       </c>
       <c r="E105" s="188"/>
       <c r="F105" s="188"/>
-      <c r="G105" s="209"/>
-      <c r="H105" s="210"/>
-      <c r="I105" s="211"/>
+      <c r="G105" s="283"/>
+      <c r="H105" s="284"/>
+      <c r="I105" s="285"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="92"/>
     </row>
     <row r="106" spans="1:13" ht="25.5">
-      <c r="A106" s="240"/>
-      <c r="B106" s="273"/>
-      <c r="C106" s="255" t="s">
+      <c r="A106" s="210"/>
+      <c r="B106" s="204"/>
+      <c r="C106" s="205" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="135" t="s">
@@ -5814,9 +5823,9 @@
       <c r="M106" s="146"/>
     </row>
     <row r="107" spans="1:13" ht="25.5">
-      <c r="A107" s="240"/>
-      <c r="B107" s="273"/>
-      <c r="C107" s="256"/>
+      <c r="A107" s="210"/>
+      <c r="B107" s="204"/>
+      <c r="C107" s="206"/>
       <c r="D107" s="118" t="s">
         <v>325</v>
       </c>
@@ -5835,9 +5844,9 @@
       <c r="M107" s="3"/>
     </row>
     <row r="108" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A108" s="240"/>
-      <c r="B108" s="273"/>
-      <c r="C108" s="256"/>
+      <c r="A108" s="210"/>
+      <c r="B108" s="204"/>
+      <c r="C108" s="206"/>
       <c r="D108" s="118" t="s">
         <v>64</v>
       </c>
@@ -5856,9 +5865,9 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A109" s="240"/>
-      <c r="B109" s="273"/>
-      <c r="C109" s="256"/>
+      <c r="A109" s="210"/>
+      <c r="B109" s="204"/>
+      <c r="C109" s="206"/>
       <c r="D109" s="118" t="s">
         <v>113</v>
       </c>
@@ -5877,9 +5886,9 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="1:13" ht="51">
-      <c r="A110" s="240"/>
-      <c r="B110" s="273"/>
-      <c r="C110" s="255" t="s">
+      <c r="A110" s="210"/>
+      <c r="B110" s="204"/>
+      <c r="C110" s="205" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="136" t="s">
@@ -5901,9 +5910,9 @@
       <c r="M110" s="146"/>
     </row>
     <row r="111" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A111" s="240"/>
-      <c r="B111" s="273"/>
-      <c r="C111" s="256"/>
+      <c r="A111" s="210"/>
+      <c r="B111" s="204"/>
+      <c r="C111" s="206"/>
       <c r="D111" s="106" t="s">
         <v>208</v>
       </c>
@@ -5911,20 +5920,20 @@
       <c r="F111" s="75">
         <v>0.1</v>
       </c>
-      <c r="G111" s="282" t="s">
+      <c r="G111" s="242" t="s">
         <v>359</v>
       </c>
-      <c r="H111" s="283"/>
-      <c r="I111" s="284"/>
+      <c r="H111" s="243"/>
+      <c r="I111" s="244"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="57"/>
     </row>
     <row r="112" spans="1:13" ht="42" customHeight="1">
-      <c r="A112" s="240"/>
-      <c r="B112" s="273"/>
-      <c r="C112" s="256"/>
+      <c r="A112" s="210"/>
+      <c r="B112" s="204"/>
+      <c r="C112" s="206"/>
       <c r="D112" s="106" t="s">
         <v>209</v>
       </c>
@@ -5932,18 +5941,18 @@
       <c r="F112" s="75">
         <v>0.1</v>
       </c>
-      <c r="G112" s="285"/>
-      <c r="H112" s="286"/>
-      <c r="I112" s="287"/>
+      <c r="G112" s="245"/>
+      <c r="H112" s="246"/>
+      <c r="I112" s="247"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A113" s="240"/>
-      <c r="B113" s="273"/>
-      <c r="C113" s="256"/>
+      <c r="A113" s="210"/>
+      <c r="B113" s="204"/>
+      <c r="C113" s="206"/>
       <c r="D113" s="106" t="s">
         <v>210</v>
       </c>
@@ -5951,22 +5960,22 @@
       <c r="F113" s="75">
         <v>0.1</v>
       </c>
-      <c r="G113" s="288"/>
-      <c r="H113" s="289"/>
-      <c r="I113" s="290"/>
+      <c r="G113" s="248"/>
+      <c r="H113" s="249"/>
+      <c r="I113" s="250"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="1:13" ht="33" customHeight="1">
-      <c r="A114" s="239" t="s">
+      <c r="A114" s="209" t="s">
         <v>100</v>
       </c>
-      <c r="B114" s="242" t="s">
+      <c r="B114" s="212" t="s">
         <v>355</v>
       </c>
-      <c r="C114" s="255" t="s">
+      <c r="C114" s="205" t="s">
         <v>29</v>
       </c>
       <c r="D114" s="135" t="s">
@@ -5990,9 +5999,9 @@
       <c r="M114" s="146"/>
     </row>
     <row r="115" spans="1:13" ht="33" customHeight="1">
-      <c r="A115" s="240"/>
-      <c r="B115" s="243"/>
-      <c r="C115" s="256"/>
+      <c r="A115" s="210"/>
+      <c r="B115" s="213"/>
+      <c r="C115" s="206"/>
       <c r="D115" s="118" t="s">
         <v>327</v>
       </c>
@@ -6011,9 +6020,9 @@
       <c r="M115" s="57"/>
     </row>
     <row r="116" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A116" s="240"/>
-      <c r="B116" s="243"/>
-      <c r="C116" s="256"/>
+      <c r="A116" s="210"/>
+      <c r="B116" s="213"/>
+      <c r="C116" s="206"/>
       <c r="D116" s="118" t="s">
         <v>211</v>
       </c>
@@ -6032,9 +6041,9 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A117" s="240"/>
-      <c r="B117" s="243"/>
-      <c r="C117" s="256"/>
+      <c r="A117" s="210"/>
+      <c r="B117" s="213"/>
+      <c r="C117" s="206"/>
       <c r="D117" s="118" t="s">
         <v>212</v>
       </c>
@@ -6053,9 +6062,9 @@
       <c r="M117" s="92"/>
     </row>
     <row r="118" spans="1:13" ht="15.75">
-      <c r="A118" s="240"/>
-      <c r="B118" s="243"/>
-      <c r="C118" s="245" t="s">
+      <c r="A118" s="210"/>
+      <c r="B118" s="213"/>
+      <c r="C118" s="207" t="s">
         <v>30</v>
       </c>
       <c r="D118" s="135" t="s">
@@ -6079,9 +6088,9 @@
       <c r="M118" s="146"/>
     </row>
     <row r="119" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A119" s="240"/>
-      <c r="B119" s="243"/>
-      <c r="C119" s="246"/>
+      <c r="A119" s="210"/>
+      <c r="B119" s="213"/>
+      <c r="C119" s="208"/>
       <c r="D119" s="120" t="s">
         <v>117</v>
       </c>
@@ -6100,9 +6109,9 @@
       <c r="M119" s="92"/>
     </row>
     <row r="120" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A120" s="240"/>
-      <c r="B120" s="243"/>
-      <c r="C120" s="246"/>
+      <c r="A120" s="210"/>
+      <c r="B120" s="213"/>
+      <c r="C120" s="208"/>
       <c r="D120" s="120" t="s">
         <v>118</v>
       </c>
@@ -6121,9 +6130,9 @@
       <c r="M120" s="92"/>
     </row>
     <row r="121" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A121" s="240"/>
-      <c r="B121" s="243"/>
-      <c r="C121" s="246"/>
+      <c r="A121" s="210"/>
+      <c r="B121" s="213"/>
+      <c r="C121" s="208"/>
       <c r="D121" s="116" t="s">
         <v>213</v>
       </c>
@@ -6142,9 +6151,9 @@
       <c r="M121" s="92"/>
     </row>
     <row r="122" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A122" s="240"/>
-      <c r="B122" s="243"/>
-      <c r="C122" s="246"/>
+      <c r="A122" s="210"/>
+      <c r="B122" s="213"/>
+      <c r="C122" s="208"/>
       <c r="D122" s="195" t="s">
         <v>208</v>
       </c>
@@ -6163,28 +6172,28 @@
       <c r="M122" s="92"/>
     </row>
     <row r="123" spans="1:13" ht="42" customHeight="1">
-      <c r="A123" s="240"/>
-      <c r="B123" s="243"/>
-      <c r="C123" s="246"/>
+      <c r="A123" s="210"/>
+      <c r="B123" s="213"/>
+      <c r="C123" s="208"/>
       <c r="D123" s="119" t="s">
         <v>209</v>
       </c>
       <c r="E123" s="97"/>
       <c r="F123" s="75"/>
-      <c r="G123" s="291" t="s">
+      <c r="G123" s="251" t="s">
         <v>358</v>
       </c>
-      <c r="H123" s="232"/>
-      <c r="I123" s="233"/>
+      <c r="H123" s="240"/>
+      <c r="I123" s="241"/>
       <c r="J123" s="83"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="92"/>
     </row>
     <row r="124" spans="1:13" ht="51">
-      <c r="A124" s="240"/>
-      <c r="B124" s="243"/>
-      <c r="C124" s="252" t="s">
+      <c r="A124" s="210"/>
+      <c r="B124" s="213"/>
+      <c r="C124" s="214" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="135" t="s">
@@ -6208,9 +6217,9 @@
       <c r="M124" s="146"/>
     </row>
     <row r="125" spans="1:13" ht="38.25">
-      <c r="A125" s="240"/>
-      <c r="B125" s="243"/>
-      <c r="C125" s="253"/>
+      <c r="A125" s="210"/>
+      <c r="B125" s="213"/>
+      <c r="C125" s="215"/>
       <c r="D125" s="122" t="s">
         <v>215</v>
       </c>
@@ -6218,20 +6227,20 @@
       <c r="F125" s="75">
         <v>1</v>
       </c>
-      <c r="G125" s="216" t="s">
+      <c r="G125" s="235" t="s">
         <v>353</v>
       </c>
-      <c r="H125" s="237"/>
-      <c r="I125" s="238"/>
+      <c r="H125" s="255"/>
+      <c r="I125" s="256"/>
       <c r="J125" s="83"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="92"/>
     </row>
     <row r="126" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A126" s="240"/>
-      <c r="B126" s="243"/>
-      <c r="C126" s="253"/>
+      <c r="A126" s="210"/>
+      <c r="B126" s="213"/>
+      <c r="C126" s="215"/>
       <c r="D126" s="116" t="s">
         <v>216</v>
       </c>
@@ -6250,9 +6259,9 @@
       <c r="M126" s="3"/>
     </row>
     <row r="127" spans="1:13" ht="25.5">
-      <c r="A127" s="240"/>
-      <c r="B127" s="243"/>
-      <c r="C127" s="253"/>
+      <c r="A127" s="210"/>
+      <c r="B127" s="213"/>
+      <c r="C127" s="215"/>
       <c r="D127" s="116" t="s">
         <v>119</v>
       </c>
@@ -6271,9 +6280,9 @@
       <c r="M127" s="3"/>
     </row>
     <row r="128" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A128" s="240"/>
-      <c r="B128" s="243"/>
-      <c r="C128" s="254"/>
+      <c r="A128" s="210"/>
+      <c r="B128" s="213"/>
+      <c r="C128" s="216"/>
       <c r="D128" s="106" t="s">
         <v>217</v>
       </c>
@@ -6292,9 +6301,9 @@
       <c r="M128" s="92"/>
     </row>
     <row r="129" spans="1:13" ht="25.5">
-      <c r="A129" s="240"/>
-      <c r="B129" s="243"/>
-      <c r="C129" s="252" t="s">
+      <c r="A129" s="210"/>
+      <c r="B129" s="213"/>
+      <c r="C129" s="214" t="s">
         <v>32</v>
       </c>
       <c r="D129" s="147" t="s">
@@ -6318,9 +6327,9 @@
       <c r="M129" s="146"/>
     </row>
     <row r="130" spans="1:13" ht="15.75">
-      <c r="A130" s="240"/>
-      <c r="B130" s="243"/>
-      <c r="C130" s="294"/>
+      <c r="A130" s="210"/>
+      <c r="B130" s="213"/>
+      <c r="C130" s="224"/>
       <c r="D130" s="116" t="s">
         <v>351</v>
       </c>
@@ -6328,20 +6337,20 @@
       <c r="F130" s="133">
         <v>1</v>
       </c>
-      <c r="G130" s="213" t="s">
+      <c r="G130" s="287" t="s">
         <v>363</v>
       </c>
-      <c r="H130" s="214"/>
-      <c r="I130" s="215"/>
+      <c r="H130" s="288"/>
+      <c r="I130" s="289"/>
       <c r="J130" s="85"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="92"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="240"/>
-      <c r="B131" s="243"/>
-      <c r="C131" s="294"/>
+      <c r="A131" s="210"/>
+      <c r="B131" s="213"/>
+      <c r="C131" s="224"/>
       <c r="D131" s="116" t="s">
         <v>220</v>
       </c>
@@ -6360,28 +6369,28 @@
       <c r="M131" s="92"/>
     </row>
     <row r="132" spans="1:13" ht="25.5">
-      <c r="A132" s="240"/>
-      <c r="B132" s="243"/>
-      <c r="C132" s="294"/>
+      <c r="A132" s="210"/>
+      <c r="B132" s="213"/>
+      <c r="C132" s="224"/>
       <c r="D132" s="116" t="s">
         <v>221</v>
       </c>
       <c r="E132" s="185"/>
       <c r="F132" s="185"/>
-      <c r="G132" s="232" t="s">
+      <c r="G132" s="240" t="s">
         <v>285</v>
       </c>
-      <c r="H132" s="232"/>
-      <c r="I132" s="233"/>
+      <c r="H132" s="240"/>
+      <c r="I132" s="241"/>
       <c r="J132" s="85"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="92"/>
     </row>
     <row r="133" spans="1:13" ht="38.25">
-      <c r="A133" s="240"/>
-      <c r="B133" s="243"/>
-      <c r="C133" s="245" t="s">
+      <c r="A133" s="210"/>
+      <c r="B133" s="213"/>
+      <c r="C133" s="207" t="s">
         <v>33</v>
       </c>
       <c r="D133" s="135" t="s">
@@ -6405,9 +6414,9 @@
       <c r="M133" s="146"/>
     </row>
     <row r="134" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A134" s="240"/>
-      <c r="B134" s="243"/>
-      <c r="C134" s="246"/>
+      <c r="A134" s="210"/>
+      <c r="B134" s="213"/>
+      <c r="C134" s="208"/>
       <c r="D134" s="123" t="s">
         <v>222</v>
       </c>
@@ -6426,9 +6435,9 @@
       <c r="M134" s="92"/>
     </row>
     <row r="135" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A135" s="240"/>
-      <c r="B135" s="243"/>
-      <c r="C135" s="246"/>
+      <c r="A135" s="210"/>
+      <c r="B135" s="213"/>
+      <c r="C135" s="208"/>
       <c r="D135" s="123" t="s">
         <v>223</v>
       </c>
@@ -6447,9 +6456,9 @@
       <c r="M135" s="92"/>
     </row>
     <row r="136" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A136" s="240"/>
-      <c r="B136" s="243"/>
-      <c r="C136" s="246"/>
+      <c r="A136" s="210"/>
+      <c r="B136" s="213"/>
+      <c r="C136" s="208"/>
       <c r="D136" s="123" t="s">
         <v>224</v>
       </c>
@@ -6468,9 +6477,9 @@
       <c r="M136" s="92"/>
     </row>
     <row r="137" spans="1:13" ht="38.25">
-      <c r="A137" s="240"/>
-      <c r="B137" s="243"/>
-      <c r="C137" s="247" t="s">
+      <c r="A137" s="210"/>
+      <c r="B137" s="213"/>
+      <c r="C137" s="219" t="s">
         <v>34</v>
       </c>
       <c r="D137" s="138" t="s">
@@ -6494,9 +6503,9 @@
       <c r="M137" s="146"/>
     </row>
     <row r="138" spans="1:13" ht="25.5">
-      <c r="A138" s="240"/>
-      <c r="B138" s="243"/>
-      <c r="C138" s="248"/>
+      <c r="A138" s="210"/>
+      <c r="B138" s="213"/>
+      <c r="C138" s="220"/>
       <c r="D138" s="118" t="s">
         <v>226</v>
       </c>
@@ -6515,9 +6524,9 @@
       <c r="M138" s="92"/>
     </row>
     <row r="139" spans="1:13" ht="25.5">
-      <c r="A139" s="240"/>
-      <c r="B139" s="243"/>
-      <c r="C139" s="248"/>
+      <c r="A139" s="210"/>
+      <c r="B139" s="213"/>
+      <c r="C139" s="220"/>
       <c r="D139" s="118" t="s">
         <v>352</v>
       </c>
@@ -6536,9 +6545,9 @@
       <c r="M139" s="92"/>
     </row>
     <row r="140" spans="1:13" ht="25.5">
-      <c r="A140" s="240"/>
-      <c r="B140" s="243"/>
-      <c r="C140" s="248"/>
+      <c r="A140" s="210"/>
+      <c r="B140" s="213"/>
+      <c r="C140" s="220"/>
       <c r="D140" s="118" t="s">
         <v>228</v>
       </c>
@@ -6557,32 +6566,32 @@
       <c r="M140" s="92"/>
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1">
-      <c r="A141" s="240"/>
-      <c r="B141" s="243"/>
-      <c r="C141" s="249"/>
+      <c r="A141" s="210"/>
+      <c r="B141" s="213"/>
+      <c r="C141" s="221"/>
       <c r="D141" s="139" t="s">
         <v>229</v>
       </c>
       <c r="E141" s="184"/>
       <c r="F141" s="184"/>
-      <c r="G141" s="224" t="s">
+      <c r="G141" s="273" t="s">
         <v>284</v>
       </c>
-      <c r="H141" s="224"/>
-      <c r="I141" s="225"/>
+      <c r="H141" s="273"/>
+      <c r="I141" s="274"/>
       <c r="J141" s="86"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="92"/>
     </row>
     <row r="142" spans="1:13" ht="76.5">
-      <c r="A142" s="295" t="s">
+      <c r="A142" s="225" t="s">
         <v>120</v>
       </c>
-      <c r="B142" s="259" t="s">
+      <c r="B142" s="203" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="255" t="s">
+      <c r="C142" s="205" t="s">
         <v>36</v>
       </c>
       <c r="D142" s="135" t="s">
@@ -6606,9 +6615,9 @@
       <c r="M142" s="146"/>
     </row>
     <row r="143" spans="1:13" ht="71.25" customHeight="1">
-      <c r="A143" s="295"/>
-      <c r="B143" s="260"/>
-      <c r="C143" s="256"/>
+      <c r="A143" s="225"/>
+      <c r="B143" s="262"/>
+      <c r="C143" s="206"/>
       <c r="D143" s="122" t="s">
         <v>230</v>
       </c>
@@ -6631,9 +6640,9 @@
       <c r="M143" s="92"/>
     </row>
     <row r="144" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A144" s="295"/>
-      <c r="B144" s="260"/>
-      <c r="C144" s="256"/>
+      <c r="A144" s="225"/>
+      <c r="B144" s="262"/>
+      <c r="C144" s="206"/>
       <c r="D144" s="120" t="s">
         <v>65</v>
       </c>
@@ -6656,9 +6665,9 @@
       <c r="M144" s="92"/>
     </row>
     <row r="145" spans="1:13" ht="66.75" customHeight="1">
-      <c r="A145" s="295"/>
-      <c r="B145" s="260"/>
-      <c r="C145" s="256"/>
+      <c r="A145" s="225"/>
+      <c r="B145" s="262"/>
+      <c r="C145" s="206"/>
       <c r="D145" s="116" t="s">
         <v>66</v>
       </c>
@@ -6681,9 +6690,9 @@
       <c r="M145" s="92"/>
     </row>
     <row r="146" spans="1:13" ht="133.5" customHeight="1">
-      <c r="A146" s="295"/>
-      <c r="B146" s="260"/>
-      <c r="C146" s="256"/>
+      <c r="A146" s="225"/>
+      <c r="B146" s="262"/>
+      <c r="C146" s="206"/>
       <c r="D146" s="116" t="s">
         <v>67</v>
       </c>
@@ -6706,9 +6715,9 @@
       <c r="M146" s="92"/>
     </row>
     <row r="147" spans="1:13" ht="109.5" customHeight="1">
-      <c r="A147" s="295"/>
-      <c r="B147" s="260"/>
-      <c r="C147" s="255" t="s">
+      <c r="A147" s="225"/>
+      <c r="B147" s="262"/>
+      <c r="C147" s="205" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="135" t="s">
@@ -6732,9 +6741,9 @@
       <c r="M147" s="146"/>
     </row>
     <row r="148" spans="1:13" ht="41.25" customHeight="1">
-      <c r="A148" s="295"/>
-      <c r="B148" s="260"/>
-      <c r="C148" s="256"/>
+      <c r="A148" s="225"/>
+      <c r="B148" s="262"/>
+      <c r="C148" s="206"/>
       <c r="D148" s="120" t="s">
         <v>124</v>
       </c>
@@ -6757,9 +6766,9 @@
       <c r="M148" s="92"/>
     </row>
     <row r="149" spans="1:13" ht="59.25" customHeight="1">
-      <c r="A149" s="295"/>
-      <c r="B149" s="260"/>
-      <c r="C149" s="256"/>
+      <c r="A149" s="225"/>
+      <c r="B149" s="262"/>
+      <c r="C149" s="206"/>
       <c r="D149" s="120" t="s">
         <v>332</v>
       </c>
@@ -6782,9 +6791,9 @@
       <c r="M149" s="92"/>
     </row>
     <row r="150" spans="1:13" ht="67.5" customHeight="1">
-      <c r="A150" s="295"/>
-      <c r="B150" s="260"/>
-      <c r="C150" s="256"/>
+      <c r="A150" s="225"/>
+      <c r="B150" s="262"/>
+      <c r="C150" s="206"/>
       <c r="D150" s="120" t="s">
         <v>125</v>
       </c>
@@ -6807,9 +6816,9 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="1:13" ht="51">
-      <c r="A151" s="295"/>
-      <c r="B151" s="260"/>
-      <c r="C151" s="255" t="s">
+      <c r="A151" s="225"/>
+      <c r="B151" s="262"/>
+      <c r="C151" s="205" t="s">
         <v>38</v>
       </c>
       <c r="D151" s="136" t="s">
@@ -6833,9 +6842,9 @@
       <c r="M151" s="146"/>
     </row>
     <row r="152" spans="1:13" ht="51">
-      <c r="A152" s="295"/>
-      <c r="B152" s="260"/>
-      <c r="C152" s="256"/>
+      <c r="A152" s="225"/>
+      <c r="B152" s="262"/>
+      <c r="C152" s="206"/>
       <c r="D152" s="116" t="s">
         <v>233</v>
       </c>
@@ -6858,9 +6867,9 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="1:13" ht="51">
-      <c r="A153" s="295"/>
-      <c r="B153" s="260"/>
-      <c r="C153" s="256"/>
+      <c r="A153" s="225"/>
+      <c r="B153" s="262"/>
+      <c r="C153" s="206"/>
       <c r="D153" s="116" t="s">
         <v>234</v>
       </c>
@@ -6883,9 +6892,9 @@
       <c r="M153" s="3"/>
     </row>
     <row r="154" spans="1:13" ht="51">
-      <c r="A154" s="295"/>
-      <c r="B154" s="260"/>
-      <c r="C154" s="256"/>
+      <c r="A154" s="225"/>
+      <c r="B154" s="262"/>
+      <c r="C154" s="206"/>
       <c r="D154" s="116" t="s">
         <v>235</v>
       </c>
@@ -6908,9 +6917,9 @@
       <c r="M154" s="3"/>
     </row>
     <row r="155" spans="1:13" ht="66.75" customHeight="1">
-      <c r="A155" s="295"/>
-      <c r="B155" s="260"/>
-      <c r="C155" s="255" t="s">
+      <c r="A155" s="225"/>
+      <c r="B155" s="262"/>
+      <c r="C155" s="205" t="s">
         <v>39</v>
       </c>
       <c r="D155" s="136" t="s">
@@ -6934,9 +6943,9 @@
       <c r="M155" s="146"/>
     </row>
     <row r="156" spans="1:13" ht="81.75" customHeight="1">
-      <c r="A156" s="295"/>
-      <c r="B156" s="260"/>
-      <c r="C156" s="256"/>
+      <c r="A156" s="225"/>
+      <c r="B156" s="262"/>
+      <c r="C156" s="206"/>
       <c r="D156" s="118" t="s">
         <v>237</v>
       </c>
@@ -6959,9 +6968,9 @@
       <c r="M156" s="3"/>
     </row>
     <row r="157" spans="1:13" ht="60" customHeight="1">
-      <c r="A157" s="295"/>
-      <c r="B157" s="260"/>
-      <c r="C157" s="256"/>
+      <c r="A157" s="225"/>
+      <c r="B157" s="262"/>
+      <c r="C157" s="206"/>
       <c r="D157" s="116" t="s">
         <v>238</v>
       </c>
@@ -6984,9 +6993,9 @@
       <c r="M157" s="3"/>
     </row>
     <row r="158" spans="1:13" ht="66" customHeight="1">
-      <c r="A158" s="295"/>
-      <c r="B158" s="260"/>
-      <c r="C158" s="256"/>
+      <c r="A158" s="225"/>
+      <c r="B158" s="262"/>
+      <c r="C158" s="206"/>
       <c r="D158" s="116" t="s">
         <v>239</v>
       </c>
@@ -7009,9 +7018,9 @@
       <c r="M158" s="3"/>
     </row>
     <row r="159" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A159" s="295"/>
-      <c r="B159" s="260"/>
-      <c r="C159" s="255" t="s">
+      <c r="A159" s="225"/>
+      <c r="B159" s="262"/>
+      <c r="C159" s="205" t="s">
         <v>126</v>
       </c>
       <c r="D159" s="136" t="s">
@@ -7035,9 +7044,9 @@
       <c r="M159" s="146"/>
     </row>
     <row r="160" spans="1:13" ht="47.25" customHeight="1">
-      <c r="A160" s="295"/>
-      <c r="B160" s="260"/>
-      <c r="C160" s="256"/>
+      <c r="A160" s="225"/>
+      <c r="B160" s="262"/>
+      <c r="C160" s="206"/>
       <c r="D160" s="120" t="s">
         <v>241</v>
       </c>
@@ -7060,9 +7069,9 @@
       <c r="M160" s="3"/>
     </row>
     <row r="161" spans="1:18" ht="44.25" customHeight="1">
-      <c r="A161" s="295"/>
-      <c r="B161" s="260"/>
-      <c r="C161" s="256"/>
+      <c r="A161" s="225"/>
+      <c r="B161" s="262"/>
+      <c r="C161" s="206"/>
       <c r="D161" s="120" t="s">
         <v>242</v>
       </c>
@@ -7085,9 +7094,9 @@
       <c r="M161" s="3"/>
     </row>
     <row r="162" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A162" s="295"/>
-      <c r="B162" s="260"/>
-      <c r="C162" s="256"/>
+      <c r="A162" s="225"/>
+      <c r="B162" s="262"/>
+      <c r="C162" s="206"/>
       <c r="D162" s="120" t="s">
         <v>243</v>
       </c>
@@ -7111,8 +7120,8 @@
     </row>
     <row r="163" spans="1:18" ht="50.25" customHeight="1">
       <c r="A163" s="69"/>
-      <c r="B163" s="260"/>
-      <c r="C163" s="271" t="s">
+      <c r="B163" s="262"/>
+      <c r="C163" s="227" t="s">
         <v>244</v>
       </c>
       <c r="D163" s="136" t="s">
@@ -7137,8 +7146,8 @@
     </row>
     <row r="164" spans="1:18" ht="51.75" customHeight="1">
       <c r="A164" s="69"/>
-      <c r="B164" s="260"/>
-      <c r="C164" s="272"/>
+      <c r="B164" s="262"/>
+      <c r="C164" s="228"/>
       <c r="D164" s="118" t="s">
         <v>246</v>
       </c>
@@ -7162,8 +7171,8 @@
     </row>
     <row r="165" spans="1:18" ht="42" customHeight="1">
       <c r="A165" s="69"/>
-      <c r="B165" s="260"/>
-      <c r="C165" s="272"/>
+      <c r="B165" s="262"/>
+      <c r="C165" s="228"/>
       <c r="D165" s="116" t="s">
         <v>247</v>
       </c>
@@ -7187,8 +7196,8 @@
     </row>
     <row r="166" spans="1:18" ht="31.5" customHeight="1">
       <c r="A166" s="69"/>
-      <c r="B166" s="260"/>
-      <c r="C166" s="272"/>
+      <c r="B166" s="262"/>
+      <c r="C166" s="228"/>
       <c r="D166" s="116" t="s">
         <v>248</v>
       </c>
@@ -7211,13 +7220,13 @@
       <c r="M166" s="3"/>
     </row>
     <row r="167" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A167" s="239" t="s">
+      <c r="A167" s="209" t="s">
         <v>120</v>
       </c>
-      <c r="B167" s="293" t="s">
+      <c r="B167" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="C167" s="255" t="s">
+      <c r="C167" s="205" t="s">
         <v>40</v>
       </c>
       <c r="D167" s="149" t="s">
@@ -7243,9 +7252,9 @@
       <c r="M167" s="146"/>
     </row>
     <row r="168" spans="1:18" ht="57">
-      <c r="A168" s="240"/>
-      <c r="B168" s="259"/>
-      <c r="C168" s="256"/>
+      <c r="A168" s="210"/>
+      <c r="B168" s="203"/>
+      <c r="C168" s="206"/>
       <c r="D168" s="150" t="s">
         <v>342</v>
       </c>
@@ -7253,20 +7262,20 @@
       <c r="F168" s="74">
         <v>1</v>
       </c>
-      <c r="G168" s="203" t="s">
+      <c r="G168" s="277" t="s">
         <v>357</v>
       </c>
-      <c r="H168" s="204"/>
-      <c r="I168" s="205"/>
+      <c r="H168" s="278"/>
+      <c r="I168" s="279"/>
       <c r="J168" s="176"/>
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
       <c r="M168" s="3"/>
     </row>
     <row r="169" spans="1:18" ht="151.5" customHeight="1">
-      <c r="A169" s="240"/>
-      <c r="B169" s="259"/>
-      <c r="C169" s="256"/>
+      <c r="A169" s="210"/>
+      <c r="B169" s="203"/>
+      <c r="C169" s="206"/>
       <c r="D169" s="150" t="s">
         <v>343</v>
       </c>
@@ -7292,28 +7301,28 @@
       </c>
     </row>
     <row r="170" spans="1:18">
-      <c r="A170" s="240"/>
-      <c r="B170" s="259"/>
-      <c r="C170" s="256"/>
+      <c r="A170" s="210"/>
+      <c r="B170" s="203"/>
+      <c r="C170" s="206"/>
       <c r="D170" s="151" t="s">
         <v>344</v>
       </c>
       <c r="E170" s="97"/>
       <c r="F170" s="180"/>
       <c r="G170" s="180"/>
-      <c r="H170" s="250" t="s">
+      <c r="H170" s="258" t="s">
         <v>285</v>
       </c>
-      <c r="I170" s="251"/>
+      <c r="I170" s="259"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
       <c r="M170" s="3"/>
     </row>
     <row r="171" spans="1:18" ht="38.25">
-      <c r="A171" s="240"/>
-      <c r="B171" s="259"/>
-      <c r="C171" s="247" t="s">
+      <c r="A171" s="210"/>
+      <c r="B171" s="203"/>
+      <c r="C171" s="219" t="s">
         <v>41</v>
       </c>
       <c r="D171" s="136" t="s">
@@ -7339,9 +7348,9 @@
       <c r="M171" s="146"/>
     </row>
     <row r="172" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A172" s="240"/>
-      <c r="B172" s="259"/>
-      <c r="C172" s="248"/>
+      <c r="A172" s="210"/>
+      <c r="B172" s="203"/>
+      <c r="C172" s="220"/>
       <c r="D172" s="70" t="s">
         <v>251</v>
       </c>
@@ -7349,20 +7358,20 @@
       <c r="F172" s="75">
         <v>1</v>
       </c>
-      <c r="G172" s="216" t="s">
+      <c r="G172" s="235" t="s">
         <v>354</v>
       </c>
-      <c r="H172" s="217"/>
-      <c r="I172" s="218"/>
+      <c r="H172" s="236"/>
+      <c r="I172" s="237"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
       <c r="M172" s="3"/>
     </row>
     <row r="173" spans="1:18" ht="64.5" customHeight="1">
-      <c r="A173" s="240"/>
-      <c r="B173" s="259"/>
-      <c r="C173" s="248"/>
+      <c r="A173" s="210"/>
+      <c r="B173" s="203"/>
+      <c r="C173" s="220"/>
       <c r="D173" s="70" t="s">
         <v>401</v>
       </c>
@@ -7370,20 +7379,20 @@
       <c r="F173" s="74">
         <v>1</v>
       </c>
-      <c r="G173" s="203" t="s">
+      <c r="G173" s="277" t="s">
         <v>363</v>
       </c>
-      <c r="H173" s="204"/>
-      <c r="I173" s="205"/>
+      <c r="H173" s="278"/>
+      <c r="I173" s="279"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
       <c r="M173" s="3"/>
     </row>
     <row r="174" spans="1:18" ht="199.5" customHeight="1">
-      <c r="A174" s="240"/>
-      <c r="B174" s="259"/>
-      <c r="C174" s="248"/>
+      <c r="A174" s="210"/>
+      <c r="B174" s="203"/>
+      <c r="C174" s="220"/>
       <c r="D174" s="70" t="s">
         <v>252</v>
       </c>
@@ -7406,28 +7415,28 @@
       <c r="M174" s="3"/>
     </row>
     <row r="175" spans="1:18" ht="42" customHeight="1">
-      <c r="A175" s="240"/>
-      <c r="B175" s="259"/>
-      <c r="C175" s="249"/>
+      <c r="A175" s="210"/>
+      <c r="B175" s="203"/>
+      <c r="C175" s="221"/>
       <c r="D175" s="70" t="s">
         <v>253</v>
       </c>
       <c r="E175" s="184"/>
       <c r="F175" s="184"/>
-      <c r="G175" s="224" t="s">
+      <c r="G175" s="273" t="s">
         <v>286</v>
       </c>
-      <c r="H175" s="224"/>
-      <c r="I175" s="225"/>
+      <c r="H175" s="273"/>
+      <c r="I175" s="274"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
       <c r="M175" s="3"/>
     </row>
     <row r="176" spans="1:18" ht="54.75" customHeight="1">
-      <c r="A176" s="240"/>
-      <c r="B176" s="259"/>
-      <c r="C176" s="255" t="s">
+      <c r="A176" s="210"/>
+      <c r="B176" s="203"/>
+      <c r="C176" s="205" t="s">
         <v>42</v>
       </c>
       <c r="D176" s="136" t="s">
@@ -7453,9 +7462,9 @@
       <c r="M176" s="146"/>
     </row>
     <row r="177" spans="1:13" ht="85.5" customHeight="1">
-      <c r="A177" s="240"/>
-      <c r="B177" s="259"/>
-      <c r="C177" s="256"/>
+      <c r="A177" s="210"/>
+      <c r="B177" s="203"/>
+      <c r="C177" s="206"/>
       <c r="D177" s="116" t="s">
         <v>129</v>
       </c>
@@ -7478,9 +7487,9 @@
       <c r="M177" s="3"/>
     </row>
     <row r="178" spans="1:13" ht="78" customHeight="1">
-      <c r="A178" s="240"/>
-      <c r="B178" s="259"/>
-      <c r="C178" s="256"/>
+      <c r="A178" s="210"/>
+      <c r="B178" s="203"/>
+      <c r="C178" s="206"/>
       <c r="D178" s="70" t="s">
         <v>255</v>
       </c>
@@ -7503,28 +7512,28 @@
       <c r="M178" s="3"/>
     </row>
     <row r="179" spans="1:13" ht="45" customHeight="1">
-      <c r="A179" s="240"/>
-      <c r="B179" s="259"/>
-      <c r="C179" s="256"/>
+      <c r="A179" s="210"/>
+      <c r="B179" s="203"/>
+      <c r="C179" s="206"/>
       <c r="D179" s="116" t="s">
         <v>256</v>
       </c>
       <c r="E179" s="185"/>
       <c r="F179" s="185"/>
-      <c r="G179" s="232" t="s">
+      <c r="G179" s="240" t="s">
         <v>284</v>
       </c>
-      <c r="H179" s="232"/>
-      <c r="I179" s="233"/>
+      <c r="H179" s="240"/>
+      <c r="I179" s="241"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
       <c r="M179" s="3"/>
     </row>
     <row r="180" spans="1:13" ht="51">
-      <c r="A180" s="240"/>
-      <c r="B180" s="259"/>
-      <c r="C180" s="245" t="s">
+      <c r="A180" s="210"/>
+      <c r="B180" s="203"/>
+      <c r="C180" s="207" t="s">
         <v>43</v>
       </c>
       <c r="D180" s="136" t="s">
@@ -7550,9 +7559,9 @@
       <c r="M180" s="146"/>
     </row>
     <row r="181" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A181" s="240"/>
-      <c r="B181" s="259"/>
-      <c r="C181" s="246"/>
+      <c r="A181" s="210"/>
+      <c r="B181" s="203"/>
+      <c r="C181" s="208"/>
       <c r="D181" s="70" t="s">
         <v>258</v>
       </c>
@@ -7560,20 +7569,20 @@
       <c r="F181" s="75">
         <v>1</v>
       </c>
-      <c r="G181" s="216" t="s">
+      <c r="G181" s="235" t="s">
         <v>357</v>
       </c>
-      <c r="H181" s="217"/>
-      <c r="I181" s="218"/>
+      <c r="H181" s="236"/>
+      <c r="I181" s="237"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
       <c r="M181" s="3"/>
     </row>
     <row r="182" spans="1:13" ht="114" customHeight="1">
-      <c r="A182" s="240"/>
-      <c r="B182" s="259"/>
-      <c r="C182" s="246"/>
+      <c r="A182" s="210"/>
+      <c r="B182" s="203"/>
+      <c r="C182" s="208"/>
       <c r="D182" s="106" t="s">
         <v>259</v>
       </c>
@@ -7596,32 +7605,32 @@
       <c r="M182" s="3"/>
     </row>
     <row r="183" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A183" s="241"/>
-      <c r="B183" s="259"/>
-      <c r="C183" s="246"/>
+      <c r="A183" s="217"/>
+      <c r="B183" s="203"/>
+      <c r="C183" s="208"/>
       <c r="D183" s="116" t="s">
         <v>260</v>
       </c>
       <c r="E183" s="189"/>
       <c r="F183" s="189"/>
-      <c r="G183" s="222" t="s">
+      <c r="G183" s="275" t="s">
         <v>284</v>
       </c>
-      <c r="H183" s="222"/>
-      <c r="I183" s="223"/>
+      <c r="H183" s="275"/>
+      <c r="I183" s="276"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
       <c r="M183" s="3"/>
     </row>
     <row r="184" spans="1:13" ht="25.5">
-      <c r="A184" s="239" t="s">
+      <c r="A184" s="209" t="s">
         <v>120</v>
       </c>
-      <c r="B184" s="242" t="s">
+      <c r="B184" s="212" t="s">
         <v>127</v>
       </c>
-      <c r="C184" s="245" t="s">
+      <c r="C184" s="207" t="s">
         <v>44</v>
       </c>
       <c r="D184" s="136" t="s">
@@ -7647,9 +7656,9 @@
       <c r="M184" s="146"/>
     </row>
     <row r="185" spans="1:13" ht="52.5" customHeight="1">
-      <c r="A185" s="240"/>
-      <c r="B185" s="243"/>
-      <c r="C185" s="246"/>
+      <c r="A185" s="210"/>
+      <c r="B185" s="213"/>
+      <c r="C185" s="208"/>
       <c r="D185" s="116" t="s">
         <v>262</v>
       </c>
@@ -7672,9 +7681,9 @@
       <c r="M185" s="3"/>
     </row>
     <row r="186" spans="1:13" ht="54" customHeight="1">
-      <c r="A186" s="240"/>
-      <c r="B186" s="243"/>
-      <c r="C186" s="246"/>
+      <c r="A186" s="210"/>
+      <c r="B186" s="213"/>
+      <c r="C186" s="208"/>
       <c r="D186" s="116" t="s">
         <v>261</v>
       </c>
@@ -7697,28 +7706,28 @@
       <c r="M186" s="3"/>
     </row>
     <row r="187" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A187" s="240"/>
-      <c r="B187" s="243"/>
-      <c r="C187" s="246"/>
+      <c r="A187" s="210"/>
+      <c r="B187" s="213"/>
+      <c r="C187" s="208"/>
       <c r="D187" s="116" t="s">
         <v>263</v>
       </c>
       <c r="E187" s="185"/>
       <c r="F187" s="185"/>
-      <c r="G187" s="232" t="s">
+      <c r="G187" s="240" t="s">
         <v>284</v>
       </c>
-      <c r="H187" s="232"/>
-      <c r="I187" s="233"/>
+      <c r="H187" s="240"/>
+      <c r="I187" s="241"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
       <c r="L187" s="5"/>
       <c r="M187" s="3"/>
     </row>
     <row r="188" spans="1:13" ht="38.25">
-      <c r="A188" s="240"/>
-      <c r="B188" s="243"/>
-      <c r="C188" s="247" t="s">
+      <c r="A188" s="210"/>
+      <c r="B188" s="213"/>
+      <c r="C188" s="219" t="s">
         <v>45</v>
       </c>
       <c r="D188" s="140" t="s">
@@ -7744,9 +7753,9 @@
       <c r="M188" s="146"/>
     </row>
     <row r="189" spans="1:13" ht="25.5">
-      <c r="A189" s="240"/>
-      <c r="B189" s="243"/>
-      <c r="C189" s="248"/>
+      <c r="A189" s="210"/>
+      <c r="B189" s="213"/>
+      <c r="C189" s="220"/>
       <c r="D189" s="106" t="s">
         <v>334</v>
       </c>
@@ -7754,20 +7763,20 @@
       <c r="F189" s="75">
         <v>1</v>
       </c>
-      <c r="G189" s="216" t="s">
+      <c r="G189" s="235" t="s">
         <v>353</v>
       </c>
-      <c r="H189" s="237"/>
-      <c r="I189" s="238"/>
+      <c r="H189" s="255"/>
+      <c r="I189" s="256"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
       <c r="L189" s="5"/>
       <c r="M189" s="3"/>
     </row>
     <row r="190" spans="1:13" ht="38.25">
-      <c r="A190" s="240"/>
-      <c r="B190" s="243"/>
-      <c r="C190" s="248"/>
+      <c r="A190" s="210"/>
+      <c r="B190" s="213"/>
+      <c r="C190" s="220"/>
       <c r="D190" s="120" t="s">
         <v>266</v>
       </c>
@@ -7775,20 +7784,20 @@
       <c r="F190" s="75">
         <v>1</v>
       </c>
-      <c r="G190" s="216" t="s">
+      <c r="G190" s="235" t="s">
         <v>357</v>
       </c>
-      <c r="H190" s="217"/>
-      <c r="I190" s="218"/>
+      <c r="H190" s="236"/>
+      <c r="I190" s="237"/>
       <c r="J190" s="80"/>
       <c r="K190" s="5"/>
       <c r="L190" s="5"/>
       <c r="M190" s="3"/>
     </row>
     <row r="191" spans="1:13" ht="63" customHeight="1">
-      <c r="A191" s="240"/>
-      <c r="B191" s="243"/>
-      <c r="C191" s="248"/>
+      <c r="A191" s="210"/>
+      <c r="B191" s="213"/>
+      <c r="C191" s="220"/>
       <c r="D191" s="106" t="s">
         <v>335</v>
       </c>
@@ -7811,9 +7820,9 @@
       <c r="M191" s="3"/>
     </row>
     <row r="192" spans="1:13" ht="69.75" customHeight="1">
-      <c r="A192" s="240"/>
-      <c r="B192" s="243"/>
-      <c r="C192" s="249"/>
+      <c r="A192" s="210"/>
+      <c r="B192" s="213"/>
+      <c r="C192" s="221"/>
       <c r="D192" s="116" t="s">
         <v>268</v>
       </c>
@@ -7827,7 +7836,7 @@
       <c r="H192" s="75">
         <v>0.11</v>
       </c>
-      <c r="I192" s="90" t="s">
+      <c r="I192" s="309" t="s">
         <v>386</v>
       </c>
       <c r="J192" s="5"/>
@@ -7836,9 +7845,9 @@
       <c r="M192" s="3"/>
     </row>
     <row r="193" spans="1:16" ht="38.25">
-      <c r="A193" s="240"/>
-      <c r="B193" s="243"/>
-      <c r="C193" s="245" t="s">
+      <c r="A193" s="210"/>
+      <c r="B193" s="213"/>
+      <c r="C193" s="207" t="s">
         <v>46</v>
       </c>
       <c r="D193" s="140" t="s">
@@ -7864,9 +7873,9 @@
       <c r="M193" s="146"/>
     </row>
     <row r="194" spans="1:16" ht="38.25">
-      <c r="A194" s="240"/>
-      <c r="B194" s="243"/>
-      <c r="C194" s="246"/>
+      <c r="A194" s="210"/>
+      <c r="B194" s="213"/>
+      <c r="C194" s="208"/>
       <c r="D194" s="106" t="s">
         <v>270</v>
       </c>
@@ -7874,20 +7883,20 @@
       <c r="F194" s="75">
         <v>1</v>
       </c>
-      <c r="G194" s="216" t="s">
+      <c r="G194" s="235" t="s">
         <v>363</v>
       </c>
-      <c r="H194" s="217"/>
-      <c r="I194" s="218"/>
+      <c r="H194" s="236"/>
+      <c r="I194" s="237"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
       <c r="M194" s="3"/>
     </row>
     <row r="195" spans="1:16" ht="70.5" customHeight="1">
-      <c r="A195" s="240"/>
-      <c r="B195" s="243"/>
-      <c r="C195" s="246"/>
+      <c r="A195" s="210"/>
+      <c r="B195" s="213"/>
+      <c r="C195" s="208"/>
       <c r="D195" s="106" t="s">
         <v>271</v>
       </c>
@@ -7910,28 +7919,28 @@
       <c r="M195" s="3"/>
     </row>
     <row r="196" spans="1:16" ht="25.5">
-      <c r="A196" s="240"/>
-      <c r="B196" s="243"/>
-      <c r="C196" s="246"/>
+      <c r="A196" s="210"/>
+      <c r="B196" s="213"/>
+      <c r="C196" s="208"/>
       <c r="D196" s="106" t="s">
         <v>272</v>
       </c>
       <c r="E196" s="189"/>
       <c r="F196" s="189"/>
-      <c r="G196" s="222" t="s">
+      <c r="G196" s="275" t="s">
         <v>285</v>
       </c>
-      <c r="H196" s="222"/>
-      <c r="I196" s="223"/>
+      <c r="H196" s="275"/>
+      <c r="I196" s="276"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
       <c r="L196" s="5"/>
       <c r="M196" s="3"/>
     </row>
     <row r="197" spans="1:16" ht="25.5">
-      <c r="A197" s="240"/>
-      <c r="B197" s="243"/>
-      <c r="C197" s="252" t="s">
+      <c r="A197" s="210"/>
+      <c r="B197" s="213"/>
+      <c r="C197" s="214" t="s">
         <v>47</v>
       </c>
       <c r="D197" s="136" t="s">
@@ -7957,9 +7966,9 @@
       <c r="M197" s="146"/>
     </row>
     <row r="198" spans="1:16" ht="60.75" customHeight="1">
-      <c r="A198" s="240"/>
-      <c r="B198" s="243"/>
-      <c r="C198" s="253"/>
+      <c r="A198" s="210"/>
+      <c r="B198" s="213"/>
+      <c r="C198" s="215"/>
       <c r="D198" s="116" t="s">
         <v>274</v>
       </c>
@@ -7967,20 +7976,20 @@
       <c r="F198" s="75">
         <v>1</v>
       </c>
-      <c r="G198" s="216" t="s">
+      <c r="G198" s="235" t="s">
         <v>354</v>
       </c>
-      <c r="H198" s="217"/>
-      <c r="I198" s="218"/>
+      <c r="H198" s="236"/>
+      <c r="I198" s="237"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
       <c r="M198" s="3"/>
     </row>
     <row r="199" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A199" s="240"/>
-      <c r="B199" s="243"/>
-      <c r="C199" s="253"/>
+      <c r="A199" s="210"/>
+      <c r="B199" s="213"/>
+      <c r="C199" s="215"/>
       <c r="D199" s="116" t="s">
         <v>275</v>
       </c>
@@ -8003,9 +8012,9 @@
       <c r="M199" s="3"/>
     </row>
     <row r="200" spans="1:16" ht="62.25" customHeight="1">
-      <c r="A200" s="240"/>
-      <c r="B200" s="243"/>
-      <c r="C200" s="253"/>
+      <c r="A200" s="210"/>
+      <c r="B200" s="213"/>
+      <c r="C200" s="215"/>
       <c r="D200" s="106" t="s">
         <v>276</v>
       </c>
@@ -8028,9 +8037,9 @@
       <c r="M200" s="3"/>
     </row>
     <row r="201" spans="1:16" ht="72.75" customHeight="1">
-      <c r="A201" s="240"/>
-      <c r="B201" s="243"/>
-      <c r="C201" s="254"/>
+      <c r="A201" s="210"/>
+      <c r="B201" s="213"/>
+      <c r="C201" s="216"/>
       <c r="D201" s="121" t="s">
         <v>277</v>
       </c>
@@ -8053,9 +8062,9 @@
       <c r="M201" s="3"/>
     </row>
     <row r="202" spans="1:16" ht="48.75" customHeight="1">
-      <c r="A202" s="240"/>
-      <c r="B202" s="243"/>
-      <c r="C202" s="255" t="s">
+      <c r="A202" s="210"/>
+      <c r="B202" s="213"/>
+      <c r="C202" s="205" t="s">
         <v>48</v>
       </c>
       <c r="D202" s="134" t="s">
@@ -8081,9 +8090,9 @@
       <c r="M202" s="146"/>
     </row>
     <row r="203" spans="1:16" ht="71.25" customHeight="1">
-      <c r="A203" s="240"/>
-      <c r="B203" s="243"/>
-      <c r="C203" s="256"/>
+      <c r="A203" s="210"/>
+      <c r="B203" s="213"/>
+      <c r="C203" s="206"/>
       <c r="D203" s="121" t="s">
         <v>279</v>
       </c>
@@ -8091,20 +8100,20 @@
       <c r="F203" s="75">
         <v>1</v>
       </c>
-      <c r="G203" s="216" t="s">
+      <c r="G203" s="235" t="s">
         <v>354</v>
       </c>
-      <c r="H203" s="217"/>
-      <c r="I203" s="218"/>
+      <c r="H203" s="236"/>
+      <c r="I203" s="237"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
       <c r="M203" s="3"/>
     </row>
     <row r="204" spans="1:16" ht="83.25" customHeight="1">
-      <c r="A204" s="240"/>
-      <c r="B204" s="243"/>
-      <c r="C204" s="256"/>
+      <c r="A204" s="210"/>
+      <c r="B204" s="213"/>
+      <c r="C204" s="206"/>
       <c r="D204" s="120" t="s">
         <v>280</v>
       </c>
@@ -8127,9 +8136,9 @@
       <c r="M204" s="3"/>
     </row>
     <row r="205" spans="1:16" ht="85.5" customHeight="1">
-      <c r="A205" s="241"/>
-      <c r="B205" s="244"/>
-      <c r="C205" s="256"/>
+      <c r="A205" s="217"/>
+      <c r="B205" s="257"/>
+      <c r="C205" s="206"/>
       <c r="D205" s="106" t="s">
         <v>281</v>
       </c>
@@ -8152,9 +8161,9 @@
       <c r="M205" s="3"/>
     </row>
     <row r="206" spans="1:16" ht="89.25" customHeight="1">
-      <c r="A206" s="235"/>
-      <c r="B206" s="235"/>
-      <c r="C206" s="234" t="s">
+      <c r="A206" s="253"/>
+      <c r="B206" s="253"/>
+      <c r="C206" s="252" t="s">
         <v>345</v>
       </c>
       <c r="D206" s="156" t="s">
@@ -8183,9 +8192,9 @@
       <c r="P206" s="6"/>
     </row>
     <row r="207" spans="1:16" ht="42.75" customHeight="1">
-      <c r="A207" s="235"/>
-      <c r="B207" s="235"/>
-      <c r="C207" s="234"/>
+      <c r="A207" s="253"/>
+      <c r="B207" s="253"/>
+      <c r="C207" s="252"/>
       <c r="D207" s="186" t="s">
         <v>347</v>
       </c>
@@ -8211,9 +8220,9 @@
       <c r="P207" s="6"/>
     </row>
     <row r="208" spans="1:16" ht="47.25" customHeight="1">
-      <c r="A208" s="235"/>
-      <c r="B208" s="235"/>
-      <c r="C208" s="234"/>
+      <c r="A208" s="253"/>
+      <c r="B208" s="253"/>
+      <c r="C208" s="252"/>
       <c r="D208" s="186" t="s">
         <v>348</v>
       </c>
@@ -8236,19 +8245,19 @@
       <c r="M208" s="78"/>
     </row>
     <row r="209" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A209" s="235"/>
-      <c r="B209" s="235"/>
-      <c r="C209" s="234"/>
+      <c r="A209" s="253"/>
+      <c r="B209" s="253"/>
+      <c r="C209" s="252"/>
       <c r="D209" s="186" t="s">
         <v>349</v>
       </c>
       <c r="E209" s="164"/>
       <c r="F209" s="164"/>
-      <c r="G209" s="232" t="s">
+      <c r="G209" s="240" t="s">
         <v>350</v>
       </c>
-      <c r="H209" s="232"/>
-      <c r="I209" s="233"/>
+      <c r="H209" s="240"/>
+      <c r="I209" s="241"/>
       <c r="J209" s="158"/>
       <c r="K209" s="159"/>
       <c r="L209" s="159"/>
@@ -8374,26 +8383,73 @@
     <protectedRange sqref="D123" name="Rango1_3_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="111">
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="A7:A25"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B15:B25"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A26:A75"/>
-    <mergeCell ref="B26:B47"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F42:I43"/>
+    <mergeCell ref="G104:I105"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="G194:I194"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G168:I168"/>
+    <mergeCell ref="G181:I181"/>
+    <mergeCell ref="G190:I190"/>
+    <mergeCell ref="G172:I172"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="G198:I198"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="G196:I196"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="G183:I183"/>
+    <mergeCell ref="G187:I187"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="G189:I189"/>
+    <mergeCell ref="A184:A205"/>
+    <mergeCell ref="B184:B205"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C188:C192"/>
+    <mergeCell ref="G209:I209"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="C197:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="C147:C150"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="B142:B166"/>
+    <mergeCell ref="G57:I60"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="B90:B113"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="G73:I74"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="B76:B89"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="G111:I113"/>
+    <mergeCell ref="G123:I123"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="A167:A183"/>
     <mergeCell ref="B167:B183"/>
@@ -8418,73 +8474,26 @@
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="A76:A89"/>
     <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="B90:B113"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="G73:I74"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="B76:B89"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="G111:I113"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="G189:I189"/>
-    <mergeCell ref="A184:A205"/>
-    <mergeCell ref="B184:B205"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C188:C192"/>
-    <mergeCell ref="G209:I209"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="C197:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="C147:C150"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="B142:B166"/>
-    <mergeCell ref="G57:I60"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G198:I198"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="G196:I196"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="G183:I183"/>
-    <mergeCell ref="G187:I187"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="F42:I43"/>
-    <mergeCell ref="G104:I105"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="G194:I194"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G168:I168"/>
-    <mergeCell ref="G181:I181"/>
-    <mergeCell ref="G190:I190"/>
-    <mergeCell ref="G172:I172"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="A7:A25"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A26:A75"/>
+    <mergeCell ref="B26:B47"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C60"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E34 E39 E44:E45 E48:E56 E61:E62 E68:E69 E72:E74 E76:E77 E79:E81 E84:E85 E87:E91 E93:E95 E98:E99 E102 E106:E130 E133:E139 E142 E147:E172 E176:E178 E180:E181 E184:E186 E188:E189 E193:E194 E197:E199 E202:E203">
     <cfRule type="iconSet" priority="2">
@@ -8560,36 +8569,36 @@
     </row>
     <row r="4" spans="1:33" ht="4.5" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C5" s="305" t="s">
+      <c r="C5" s="300" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="306"/>
-      <c r="K5" s="306"/>
-      <c r="L5" s="306"/>
-      <c r="M5" s="306"/>
-      <c r="N5" s="306"/>
-      <c r="O5" s="307"/>
-      <c r="Q5" s="305" t="s">
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="301"/>
+      <c r="I5" s="301"/>
+      <c r="J5" s="301"/>
+      <c r="K5" s="301"/>
+      <c r="L5" s="301"/>
+      <c r="M5" s="301"/>
+      <c r="N5" s="301"/>
+      <c r="O5" s="302"/>
+      <c r="Q5" s="300" t="s">
         <v>144</v>
       </c>
-      <c r="R5" s="306"/>
-      <c r="S5" s="306"/>
-      <c r="T5" s="306"/>
-      <c r="U5" s="306"/>
-      <c r="V5" s="306"/>
-      <c r="W5" s="306"/>
-      <c r="X5" s="306"/>
-      <c r="Y5" s="306"/>
-      <c r="Z5" s="306"/>
-      <c r="AA5" s="306"/>
-      <c r="AB5" s="306"/>
-      <c r="AC5" s="307"/>
+      <c r="R5" s="301"/>
+      <c r="S5" s="301"/>
+      <c r="T5" s="301"/>
+      <c r="U5" s="301"/>
+      <c r="V5" s="301"/>
+      <c r="W5" s="301"/>
+      <c r="X5" s="301"/>
+      <c r="Y5" s="301"/>
+      <c r="Z5" s="301"/>
+      <c r="AA5" s="301"/>
+      <c r="AB5" s="301"/>
+      <c r="AC5" s="302"/>
       <c r="AF5"/>
     </row>
     <row r="6" spans="1:33" ht="18" customHeight="1">
@@ -8783,7 +8792,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="31.5" customHeight="1">
-      <c r="A8" s="257" t="s">
+      <c r="A8" s="260" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="58" t="s">
@@ -8850,7 +8859,7 @@
       <c r="AG8" s="46"/>
     </row>
     <row r="9" spans="1:33" ht="25.5">
-      <c r="A9" s="258"/>
+      <c r="A9" s="261"/>
       <c r="B9" s="105" t="s">
         <v>155</v>
       </c>
@@ -8915,7 +8924,7 @@
       <c r="AG9" s="46"/>
     </row>
     <row r="10" spans="1:33" ht="25.5">
-      <c r="A10" s="258"/>
+      <c r="A10" s="261"/>
       <c r="B10" s="106" t="s">
         <v>156</v>
       </c>
@@ -8979,7 +8988,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="38.25">
-      <c r="A11" s="258"/>
+      <c r="A11" s="261"/>
       <c r="B11" s="105" t="s">
         <v>157</v>
       </c>
@@ -9043,7 +9052,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="63.75" customHeight="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="260" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -9109,7 +9118,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="38.25">
-      <c r="A13" s="258"/>
+      <c r="A13" s="261"/>
       <c r="B13" s="107" t="s">
         <v>158</v>
       </c>
@@ -9173,7 +9182,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="28.5" customHeight="1">
-      <c r="A14" s="258"/>
+      <c r="A14" s="261"/>
       <c r="B14" s="107" t="s">
         <v>159</v>
       </c>
@@ -9237,7 +9246,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" ht="25.5">
-      <c r="A15" s="258"/>
+      <c r="A15" s="261"/>
       <c r="B15" s="106" t="s">
         <v>160</v>
       </c>
@@ -9301,7 +9310,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="25.5">
-      <c r="A16" s="257" t="s">
+      <c r="A16" s="260" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -9367,7 +9376,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="25.5">
-      <c r="A17" s="258"/>
+      <c r="A17" s="261"/>
       <c r="B17" s="107" t="s">
         <v>75</v>
       </c>
@@ -9431,7 +9440,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="38.25">
-      <c r="A18" s="258"/>
+      <c r="A18" s="261"/>
       <c r="B18" s="107" t="s">
         <v>76</v>
       </c>
@@ -9495,7 +9504,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="38.25">
-      <c r="A19" s="258"/>
+      <c r="A19" s="261"/>
       <c r="B19" s="107" t="s">
         <v>77</v>
       </c>
@@ -9559,7 +9568,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="25.5">
-      <c r="A20" s="258"/>
+      <c r="A20" s="261"/>
       <c r="B20" s="107" t="s">
         <v>78</v>
       </c>
@@ -9623,7 +9632,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" ht="38.25">
-      <c r="A21" s="299" t="s">
+      <c r="A21" s="303" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="59" t="s">
@@ -9689,7 +9698,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="38.25">
-      <c r="A22" s="300"/>
+      <c r="A22" s="304"/>
       <c r="B22" s="108" t="s">
         <v>80</v>
       </c>
@@ -9753,7 +9762,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="51">
-      <c r="A23" s="300"/>
+      <c r="A23" s="304"/>
       <c r="B23" s="108" t="s">
         <v>81</v>
       </c>
@@ -9817,7 +9826,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" ht="76.5">
-      <c r="A24" s="300"/>
+      <c r="A24" s="304"/>
       <c r="B24" s="108" t="s">
         <v>82</v>
       </c>
@@ -9881,7 +9890,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" ht="38.25">
-      <c r="A25" s="300"/>
+      <c r="A25" s="304"/>
       <c r="B25" s="108" t="s">
         <v>83</v>
       </c>
@@ -9945,7 +9954,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" ht="38.25">
-      <c r="A26" s="297"/>
+      <c r="A26" s="211"/>
       <c r="B26" s="104" t="s">
         <v>162</v>
       </c>
@@ -10009,7 +10018,7 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="25.5">
-      <c r="A27" s="257" t="s">
+      <c r="A27" s="260" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="64" t="s">
@@ -10075,7 +10084,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" ht="51">
-      <c r="A28" s="301"/>
+      <c r="A28" s="305"/>
       <c r="B28" s="109" t="s">
         <v>85</v>
       </c>
@@ -10139,7 +10148,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" ht="25.5">
-      <c r="A29" s="301"/>
+      <c r="A29" s="305"/>
       <c r="B29" s="109" t="s">
         <v>164</v>
       </c>
@@ -10203,7 +10212,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" ht="25.5">
-      <c r="A30" s="301"/>
+      <c r="A30" s="305"/>
       <c r="B30" s="109" t="s">
         <v>165</v>
       </c>
@@ -10267,7 +10276,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" ht="38.25">
-      <c r="A31" s="257" t="s">
+      <c r="A31" s="260" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="63" t="s">
@@ -10333,7 +10342,7 @@
       </c>
     </row>
     <row r="32" spans="1:32" ht="25.5">
-      <c r="A32" s="258"/>
+      <c r="A32" s="261"/>
       <c r="B32" s="111" t="s">
         <v>167</v>
       </c>
@@ -10397,7 +10406,7 @@
       </c>
     </row>
     <row r="33" spans="1:32" ht="25.5">
-      <c r="A33" s="258"/>
+      <c r="A33" s="261"/>
       <c r="B33" s="111" t="s">
         <v>86</v>
       </c>
@@ -10461,7 +10470,7 @@
       </c>
     </row>
     <row r="34" spans="1:32" ht="63.75">
-      <c r="A34" s="258"/>
+      <c r="A34" s="261"/>
       <c r="B34" s="111" t="s">
         <v>168</v>
       </c>
@@ -10525,7 +10534,7 @@
       </c>
     </row>
     <row r="35" spans="1:32" ht="89.25">
-      <c r="A35" s="299" t="s">
+      <c r="A35" s="303" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="64" t="s">
@@ -10591,7 +10600,7 @@
       </c>
     </row>
     <row r="36" spans="1:32" ht="39">
-      <c r="A36" s="300"/>
+      <c r="A36" s="304"/>
       <c r="B36" s="112" t="s">
         <v>88</v>
       </c>
@@ -10655,7 +10664,7 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="51">
-      <c r="A37" s="300"/>
+      <c r="A37" s="304"/>
       <c r="B37" s="113" t="s">
         <v>89</v>
       </c>
@@ -10719,7 +10728,7 @@
       </c>
     </row>
     <row r="38" spans="1:32" ht="63.75">
-      <c r="A38" s="300"/>
+      <c r="A38" s="304"/>
       <c r="B38" s="113" t="s">
         <v>55</v>
       </c>
@@ -10783,7 +10792,7 @@
       </c>
     </row>
     <row r="39" spans="1:32" ht="39">
-      <c r="A39" s="297"/>
+      <c r="A39" s="211"/>
       <c r="B39" s="112" t="s">
         <v>90</v>
       </c>
@@ -10847,7 +10856,7 @@
       </c>
     </row>
     <row r="40" spans="1:32" ht="25.5">
-      <c r="A40" s="257" t="s">
+      <c r="A40" s="260" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="64" t="s">
@@ -10913,7 +10922,7 @@
       </c>
     </row>
     <row r="41" spans="1:32" ht="38.25">
-      <c r="A41" s="258"/>
+      <c r="A41" s="261"/>
       <c r="B41" s="109" t="s">
         <v>56</v>
       </c>
@@ -10977,7 +10986,7 @@
       </c>
     </row>
     <row r="42" spans="1:32" ht="38.25">
-      <c r="A42" s="258"/>
+      <c r="A42" s="261"/>
       <c r="B42" s="109" t="s">
         <v>92</v>
       </c>
@@ -11041,7 +11050,7 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="25.5">
-      <c r="A43" s="258"/>
+      <c r="A43" s="261"/>
       <c r="B43" s="109" t="s">
         <v>57</v>
       </c>
@@ -11105,7 +11114,7 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="25.5">
-      <c r="A44" s="258"/>
+      <c r="A44" s="261"/>
       <c r="B44" s="109" t="s">
         <v>93</v>
       </c>
@@ -11169,7 +11178,7 @@
       </c>
     </row>
     <row r="45" spans="1:32" ht="25.5">
-      <c r="A45" s="257" t="s">
+      <c r="A45" s="260" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="64" t="s">
@@ -11235,7 +11244,7 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="51.75">
-      <c r="A46" s="258"/>
+      <c r="A46" s="261"/>
       <c r="B46" s="112" t="s">
         <v>170</v>
       </c>
@@ -11299,7 +11308,7 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="51.75">
-      <c r="A47" s="258"/>
+      <c r="A47" s="261"/>
       <c r="B47" s="112" t="s">
         <v>171</v>
       </c>
@@ -11363,7 +11372,7 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="51">
-      <c r="A48" s="258"/>
+      <c r="A48" s="261"/>
       <c r="B48" s="113" t="s">
         <v>172</v>
       </c>
@@ -11427,7 +11436,7 @@
       </c>
     </row>
     <row r="49" spans="1:32" ht="38.25">
-      <c r="A49" s="257" t="s">
+      <c r="A49" s="260" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="59" t="s">
@@ -11493,7 +11502,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="38.25">
-      <c r="A50" s="258"/>
+      <c r="A50" s="261"/>
       <c r="B50" s="115" t="s">
         <v>94</v>
       </c>
@@ -11557,7 +11566,7 @@
       </c>
     </row>
     <row r="51" spans="1:32" ht="51">
-      <c r="A51" s="258"/>
+      <c r="A51" s="261"/>
       <c r="B51" s="115" t="s">
         <v>95</v>
       </c>
@@ -11621,7 +11630,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" ht="38.25">
-      <c r="A52" s="258"/>
+      <c r="A52" s="261"/>
       <c r="B52" s="115" t="s">
         <v>68</v>
       </c>
@@ -11685,7 +11694,7 @@
       </c>
     </row>
     <row r="53" spans="1:32">
-      <c r="A53" s="257" t="s">
+      <c r="A53" s="260" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="59" t="s">
@@ -11751,7 +11760,7 @@
       </c>
     </row>
     <row r="54" spans="1:32" ht="51">
-      <c r="A54" s="258"/>
+      <c r="A54" s="261"/>
       <c r="B54" s="114" t="s">
         <v>173</v>
       </c>
@@ -11815,7 +11824,7 @@
       </c>
     </row>
     <row r="55" spans="1:32" ht="63.75">
-      <c r="A55" s="258"/>
+      <c r="A55" s="261"/>
       <c r="B55" s="110" t="s">
         <v>174</v>
       </c>
@@ -11879,7 +11888,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" ht="25.5">
-      <c r="A56" s="258"/>
+      <c r="A56" s="261"/>
       <c r="B56" s="104" t="s">
         <v>175</v>
       </c>
@@ -11943,7 +11952,7 @@
       </c>
     </row>
     <row r="57" spans="1:32" ht="51">
-      <c r="A57" s="257" t="s">
+      <c r="A57" s="260" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="64" t="s">
@@ -12009,7 +12018,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="51">
-      <c r="A58" s="258"/>
+      <c r="A58" s="261"/>
       <c r="B58" s="106" t="s">
         <v>177</v>
       </c>
@@ -12073,7 +12082,7 @@
       </c>
     </row>
     <row r="59" spans="1:32" ht="38.25">
-      <c r="A59" s="258"/>
+      <c r="A59" s="261"/>
       <c r="B59" s="106" t="s">
         <v>178</v>
       </c>
@@ -12137,7 +12146,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="38.25">
-      <c r="A60" s="258"/>
+      <c r="A60" s="261"/>
       <c r="B60" s="106" t="s">
         <v>97</v>
       </c>
@@ -12201,7 +12210,7 @@
       </c>
     </row>
     <row r="61" spans="1:32" ht="51">
-      <c r="A61" s="258"/>
+      <c r="A61" s="261"/>
       <c r="B61" s="105" t="s">
         <v>179</v>
       </c>
@@ -12265,7 +12274,7 @@
       </c>
     </row>
     <row r="62" spans="1:32" ht="51">
-      <c r="A62" s="299" t="s">
+      <c r="A62" s="303" t="s">
         <v>15</v>
       </c>
       <c r="B62" s="65" t="s">
@@ -12331,7 +12340,7 @@
       </c>
     </row>
     <row r="63" spans="1:32" ht="38.25">
-      <c r="A63" s="300"/>
+      <c r="A63" s="304"/>
       <c r="B63" s="106" t="s">
         <v>182</v>
       </c>
@@ -12395,7 +12404,7 @@
       </c>
     </row>
     <row r="64" spans="1:32" ht="25.5">
-      <c r="A64" s="300"/>
+      <c r="A64" s="304"/>
       <c r="B64" s="116" t="s">
         <v>183</v>
       </c>
@@ -12459,7 +12468,7 @@
       </c>
     </row>
     <row r="65" spans="1:32" ht="25.5">
-      <c r="A65" s="300"/>
+      <c r="A65" s="304"/>
       <c r="B65" s="106" t="s">
         <v>184</v>
       </c>
@@ -12523,7 +12532,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" ht="38.25">
-      <c r="A66" s="308"/>
+      <c r="A66" s="306"/>
       <c r="B66" s="106" t="s">
         <v>185</v>
       </c>
@@ -12587,7 +12596,7 @@
       </c>
     </row>
     <row r="67" spans="1:32" ht="25.5">
-      <c r="A67" s="308"/>
+      <c r="A67" s="306"/>
       <c r="B67" s="116" t="s">
         <v>186</v>
       </c>
@@ -12651,7 +12660,7 @@
       </c>
     </row>
     <row r="68" spans="1:32" ht="25.5">
-      <c r="A68" s="297"/>
+      <c r="A68" s="211"/>
       <c r="B68" s="116" t="s">
         <v>187</v>
       </c>
@@ -12715,7 +12724,7 @@
       </c>
     </row>
     <row r="69" spans="1:32" ht="25.5">
-      <c r="A69" s="257" t="s">
+      <c r="A69" s="260" t="s">
         <v>16</v>
       </c>
       <c r="B69" s="59" t="s">
@@ -12781,7 +12790,7 @@
       </c>
     </row>
     <row r="70" spans="1:32" ht="38.25">
-      <c r="A70" s="258"/>
+      <c r="A70" s="261"/>
       <c r="B70" s="117" t="s">
         <v>188</v>
       </c>
@@ -12845,7 +12854,7 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="25.5">
-      <c r="A71" s="258"/>
+      <c r="A71" s="261"/>
       <c r="B71" s="106" t="s">
         <v>99</v>
       </c>
@@ -12909,7 +12918,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" ht="25.5">
-      <c r="A72" s="258"/>
+      <c r="A72" s="261"/>
       <c r="B72" s="106" t="s">
         <v>189</v>
       </c>
@@ -12973,7 +12982,7 @@
       </c>
     </row>
     <row r="73" spans="1:32" ht="63.75">
-      <c r="A73" s="257" t="s">
+      <c r="A73" s="260" t="s">
         <v>17</v>
       </c>
       <c r="B73" s="64" t="s">
@@ -13039,7 +13048,7 @@
       </c>
     </row>
     <row r="74" spans="1:32" ht="38.25">
-      <c r="A74" s="258"/>
+      <c r="A74" s="261"/>
       <c r="B74" s="106" t="s">
         <v>191</v>
       </c>
@@ -13103,7 +13112,7 @@
       </c>
     </row>
     <row r="75" spans="1:32" ht="25.5">
-      <c r="A75" s="258"/>
+      <c r="A75" s="261"/>
       <c r="B75" s="116" t="s">
         <v>186</v>
       </c>
@@ -13167,7 +13176,7 @@
       </c>
     </row>
     <row r="76" spans="1:32" ht="38.25">
-      <c r="A76" s="258"/>
+      <c r="A76" s="261"/>
       <c r="B76" s="106" t="s">
         <v>192</v>
       </c>
@@ -13231,7 +13240,7 @@
       </c>
     </row>
     <row r="77" spans="1:32" ht="25.5">
-      <c r="A77" s="257" t="s">
+      <c r="A77" s="260" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="59" t="s">
@@ -13297,7 +13306,7 @@
       </c>
     </row>
     <row r="78" spans="1:32" ht="51">
-      <c r="A78" s="258"/>
+      <c r="A78" s="261"/>
       <c r="B78" s="118" t="s">
         <v>193</v>
       </c>
@@ -13361,7 +13370,7 @@
       </c>
     </row>
     <row r="79" spans="1:32" ht="38.25">
-      <c r="A79" s="258"/>
+      <c r="A79" s="261"/>
       <c r="B79" s="118" t="s">
         <v>103</v>
       </c>
@@ -13425,7 +13434,7 @@
       </c>
     </row>
     <row r="80" spans="1:32" ht="25.5">
-      <c r="A80" s="258"/>
+      <c r="A80" s="261"/>
       <c r="B80" s="118" t="s">
         <v>104</v>
       </c>
@@ -13489,7 +13498,7 @@
       </c>
     </row>
     <row r="81" spans="1:32" ht="25.5">
-      <c r="A81" s="257" t="s">
+      <c r="A81" s="260" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="59" t="s">
@@ -13555,7 +13564,7 @@
       </c>
     </row>
     <row r="82" spans="1:32" ht="38.25">
-      <c r="A82" s="258"/>
+      <c r="A82" s="261"/>
       <c r="B82" s="118" t="s">
         <v>59</v>
       </c>
@@ -13619,7 +13628,7 @@
       </c>
     </row>
     <row r="83" spans="1:32" ht="38.25">
-      <c r="A83" s="258"/>
+      <c r="A83" s="261"/>
       <c r="B83" s="118" t="s">
         <v>106</v>
       </c>
@@ -13683,7 +13692,7 @@
       </c>
     </row>
     <row r="84" spans="1:32" ht="25.5">
-      <c r="A84" s="258"/>
+      <c r="A84" s="261"/>
       <c r="B84" s="118" t="s">
         <v>107</v>
       </c>
@@ -13747,7 +13756,7 @@
       </c>
     </row>
     <row r="85" spans="1:32" ht="38.25">
-      <c r="A85" s="257" t="s">
+      <c r="A85" s="260" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="66" t="s">
@@ -13813,7 +13822,7 @@
       </c>
     </row>
     <row r="86" spans="1:32" ht="51">
-      <c r="A86" s="258"/>
+      <c r="A86" s="261"/>
       <c r="B86" s="118" t="s">
         <v>108</v>
       </c>
@@ -13877,7 +13886,7 @@
       </c>
     </row>
     <row r="87" spans="1:32" ht="25.5">
-      <c r="A87" s="258"/>
+      <c r="A87" s="261"/>
       <c r="B87" s="118" t="s">
         <v>195</v>
       </c>
@@ -13941,7 +13950,7 @@
       </c>
     </row>
     <row r="88" spans="1:32" ht="51">
-      <c r="A88" s="258"/>
+      <c r="A88" s="261"/>
       <c r="B88" s="119" t="s">
         <v>196</v>
       </c>
@@ -14005,7 +14014,7 @@
       </c>
     </row>
     <row r="89" spans="1:32" ht="51">
-      <c r="A89" s="258"/>
+      <c r="A89" s="261"/>
       <c r="B89" s="107" t="s">
         <v>58</v>
       </c>
@@ -14069,7 +14078,7 @@
       </c>
     </row>
     <row r="90" spans="1:32" ht="38.25">
-      <c r="A90" s="258"/>
+      <c r="A90" s="261"/>
       <c r="B90" s="119" t="s">
         <v>197</v>
       </c>
@@ -14133,7 +14142,7 @@
       </c>
     </row>
     <row r="91" spans="1:32" ht="38.25">
-      <c r="A91" s="257" t="s">
+      <c r="A91" s="260" t="s">
         <v>21</v>
       </c>
       <c r="B91" s="64" t="s">
@@ -14199,7 +14208,7 @@
       </c>
     </row>
     <row r="92" spans="1:32">
-      <c r="A92" s="258"/>
+      <c r="A92" s="261"/>
       <c r="B92" s="116" t="s">
         <v>110</v>
       </c>
@@ -14263,7 +14272,7 @@
       </c>
     </row>
     <row r="93" spans="1:32" ht="25.5">
-      <c r="A93" s="258"/>
+      <c r="A93" s="261"/>
       <c r="B93" s="116" t="s">
         <v>198</v>
       </c>
@@ -14327,7 +14336,7 @@
       </c>
     </row>
     <row r="94" spans="1:32" ht="38.25">
-      <c r="A94" s="258"/>
+      <c r="A94" s="261"/>
       <c r="B94" s="116" t="s">
         <v>60</v>
       </c>
@@ -14391,7 +14400,7 @@
       </c>
     </row>
     <row r="95" spans="1:32" ht="38.25">
-      <c r="A95" s="257" t="s">
+      <c r="A95" s="260" t="s">
         <v>22</v>
       </c>
       <c r="B95" s="64" t="s">
@@ -14457,7 +14466,7 @@
       </c>
     </row>
     <row r="96" spans="1:32" ht="38.25">
-      <c r="A96" s="258"/>
+      <c r="A96" s="261"/>
       <c r="B96" s="116" t="s">
         <v>200</v>
       </c>
@@ -14521,7 +14530,7 @@
       </c>
     </row>
     <row r="97" spans="1:32" ht="38.25">
-      <c r="A97" s="258"/>
+      <c r="A97" s="261"/>
       <c r="B97" s="116" t="s">
         <v>201</v>
       </c>
@@ -14585,7 +14594,7 @@
       </c>
     </row>
     <row r="98" spans="1:32" ht="38.25">
-      <c r="A98" s="258"/>
+      <c r="A98" s="261"/>
       <c r="B98" s="116" t="s">
         <v>202</v>
       </c>
@@ -14649,7 +14658,7 @@
       </c>
     </row>
     <row r="99" spans="1:32" ht="51">
-      <c r="A99" s="257" t="s">
+      <c r="A99" s="260" t="s">
         <v>23</v>
       </c>
       <c r="B99" s="64" t="s">
@@ -14715,7 +14724,7 @@
       </c>
     </row>
     <row r="100" spans="1:32" ht="38.25">
-      <c r="A100" s="258"/>
+      <c r="A100" s="261"/>
       <c r="B100" s="116" t="s">
         <v>61</v>
       </c>
@@ -14779,7 +14788,7 @@
       </c>
     </row>
     <row r="101" spans="1:32" ht="38.25">
-      <c r="A101" s="258"/>
+      <c r="A101" s="261"/>
       <c r="B101" s="116" t="s">
         <v>62</v>
       </c>
@@ -14843,7 +14852,7 @@
       </c>
     </row>
     <row r="102" spans="1:32" ht="51">
-      <c r="A102" s="258"/>
+      <c r="A102" s="261"/>
       <c r="B102" s="116" t="s">
         <v>63</v>
       </c>
@@ -14907,7 +14916,7 @@
       </c>
     </row>
     <row r="103" spans="1:32" ht="63.75">
-      <c r="A103" s="257" t="s">
+      <c r="A103" s="260" t="s">
         <v>25</v>
       </c>
       <c r="B103" s="64" t="s">
@@ -14979,7 +14988,7 @@
       </c>
     </row>
     <row r="104" spans="1:32" ht="25.5">
-      <c r="A104" s="258"/>
+      <c r="A104" s="261"/>
       <c r="B104" s="116" t="s">
         <v>204</v>
       </c>
@@ -15049,7 +15058,7 @@
       </c>
     </row>
     <row r="105" spans="1:32" ht="38.25">
-      <c r="A105" s="258"/>
+      <c r="A105" s="261"/>
       <c r="B105" s="116" t="s">
         <v>205</v>
       </c>
@@ -15113,7 +15122,7 @@
       </c>
     </row>
     <row r="106" spans="1:32" ht="38.25">
-      <c r="A106" s="258"/>
+      <c r="A106" s="261"/>
       <c r="B106" s="116" t="s">
         <v>206</v>
       </c>
@@ -15177,7 +15186,7 @@
       </c>
     </row>
     <row r="107" spans="1:32" ht="25.5">
-      <c r="A107" s="257" t="s">
+      <c r="A107" s="260" t="s">
         <v>26</v>
       </c>
       <c r="B107" s="59" t="s">
@@ -15243,7 +15252,7 @@
       </c>
     </row>
     <row r="108" spans="1:32" ht="25.5">
-      <c r="A108" s="258"/>
+      <c r="A108" s="261"/>
       <c r="B108" s="118" t="s">
         <v>112</v>
       </c>
@@ -15307,7 +15316,7 @@
       </c>
     </row>
     <row r="109" spans="1:32" ht="25.5">
-      <c r="A109" s="258"/>
+      <c r="A109" s="261"/>
       <c r="B109" s="118" t="s">
         <v>64</v>
       </c>
@@ -15371,7 +15380,7 @@
       </c>
     </row>
     <row r="110" spans="1:32" ht="51">
-      <c r="A110" s="258"/>
+      <c r="A110" s="261"/>
       <c r="B110" s="118" t="s">
         <v>113</v>
       </c>
@@ -15435,7 +15444,7 @@
       </c>
     </row>
     <row r="111" spans="1:32" ht="51">
-      <c r="A111" s="257" t="s">
+      <c r="A111" s="260" t="s">
         <v>27</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -15501,7 +15510,7 @@
       </c>
     </row>
     <row r="112" spans="1:32" ht="51">
-      <c r="A112" s="258"/>
+      <c r="A112" s="261"/>
       <c r="B112" s="106" t="s">
         <v>208</v>
       </c>
@@ -15565,7 +15574,7 @@
       </c>
     </row>
     <row r="113" spans="1:32" ht="51">
-      <c r="A113" s="258"/>
+      <c r="A113" s="261"/>
       <c r="B113" s="106" t="s">
         <v>209</v>
       </c>
@@ -15629,7 +15638,7 @@
       </c>
     </row>
     <row r="114" spans="1:32" ht="63.75">
-      <c r="A114" s="258"/>
+      <c r="A114" s="261"/>
       <c r="B114" s="106" t="s">
         <v>210</v>
       </c>
@@ -15693,7 +15702,7 @@
       </c>
     </row>
     <row r="115" spans="1:32" ht="38.25">
-      <c r="A115" s="257" t="s">
+      <c r="A115" s="260" t="s">
         <v>29</v>
       </c>
       <c r="B115" s="59" t="s">
@@ -15759,7 +15768,7 @@
       </c>
     </row>
     <row r="116" spans="1:32" ht="25.5">
-      <c r="A116" s="258"/>
+      <c r="A116" s="261"/>
       <c r="B116" s="118" t="s">
         <v>115</v>
       </c>
@@ -15823,7 +15832,7 @@
       </c>
     </row>
     <row r="117" spans="1:32" ht="38.25">
-      <c r="A117" s="258"/>
+      <c r="A117" s="261"/>
       <c r="B117" s="118" t="s">
         <v>211</v>
       </c>
@@ -15887,7 +15896,7 @@
       </c>
     </row>
     <row r="118" spans="1:32" ht="25.5">
-      <c r="A118" s="258"/>
+      <c r="A118" s="261"/>
       <c r="B118" s="118" t="s">
         <v>212</v>
       </c>
@@ -15951,7 +15960,7 @@
       </c>
     </row>
     <row r="119" spans="1:32">
-      <c r="A119" s="257" t="s">
+      <c r="A119" s="260" t="s">
         <v>30</v>
       </c>
       <c r="B119" s="59" t="s">
@@ -16017,7 +16026,7 @@
       </c>
     </row>
     <row r="120" spans="1:32" ht="38.25">
-      <c r="A120" s="258"/>
+      <c r="A120" s="261"/>
       <c r="B120" s="120" t="s">
         <v>117</v>
       </c>
@@ -16081,7 +16090,7 @@
       </c>
     </row>
     <row r="121" spans="1:32" ht="25.5">
-      <c r="A121" s="258"/>
+      <c r="A121" s="261"/>
       <c r="B121" s="120" t="s">
         <v>118</v>
       </c>
@@ -16145,7 +16154,7 @@
       </c>
     </row>
     <row r="122" spans="1:32" ht="38.25">
-      <c r="A122" s="258"/>
+      <c r="A122" s="261"/>
       <c r="B122" s="116" t="s">
         <v>213</v>
       </c>
@@ -16197,7 +16206,7 @@
       <c r="AF122" s="45"/>
     </row>
     <row r="123" spans="1:32" ht="51">
-      <c r="A123" s="258"/>
+      <c r="A123" s="261"/>
       <c r="B123" s="195" t="s">
         <v>208</v>
       </c>
@@ -16237,7 +16246,7 @@
       <c r="AF123" s="45"/>
     </row>
     <row r="124" spans="1:32" ht="51">
-      <c r="A124" s="258"/>
+      <c r="A124" s="261"/>
       <c r="B124" s="119" t="s">
         <v>209</v>
       </c>
@@ -16301,7 +16310,7 @@
       </c>
     </row>
     <row r="125" spans="1:32" ht="51">
-      <c r="A125" s="299" t="s">
+      <c r="A125" s="303" t="s">
         <v>31</v>
       </c>
       <c r="B125" s="59" t="s">
@@ -16367,7 +16376,7 @@
       </c>
     </row>
     <row r="126" spans="1:32" ht="51">
-      <c r="A126" s="300"/>
+      <c r="A126" s="304"/>
       <c r="B126" s="122" t="s">
         <v>215</v>
       </c>
@@ -16427,7 +16436,7 @@
       </c>
     </row>
     <row r="127" spans="1:32" ht="25.5">
-      <c r="A127" s="300"/>
+      <c r="A127" s="304"/>
       <c r="B127" s="116" t="s">
         <v>216</v>
       </c>
@@ -16491,7 +16500,7 @@
       </c>
     </row>
     <row r="128" spans="1:32" ht="25.5">
-      <c r="A128" s="300"/>
+      <c r="A128" s="304"/>
       <c r="B128" s="116" t="s">
         <v>119</v>
       </c>
@@ -16555,7 +16564,7 @@
       </c>
     </row>
     <row r="129" spans="1:32" ht="63.75">
-      <c r="A129" s="297"/>
+      <c r="A129" s="211"/>
       <c r="B129" s="106" t="s">
         <v>217</v>
       </c>
@@ -16619,7 +16628,7 @@
       </c>
     </row>
     <row r="130" spans="1:32" ht="30">
-      <c r="A130" s="299" t="s">
+      <c r="A130" s="303" t="s">
         <v>32</v>
       </c>
       <c r="B130" s="67" t="s">
@@ -16685,7 +16694,7 @@
       </c>
     </row>
     <row r="131" spans="1:32" ht="25.5">
-      <c r="A131" s="303"/>
+      <c r="A131" s="307"/>
       <c r="B131" s="116" t="s">
         <v>219</v>
       </c>
@@ -16749,7 +16758,7 @@
       </c>
     </row>
     <row r="132" spans="1:32">
-      <c r="A132" s="303"/>
+      <c r="A132" s="307"/>
       <c r="B132" s="116" t="s">
         <v>220</v>
       </c>
@@ -16813,7 +16822,7 @@
       </c>
     </row>
     <row r="133" spans="1:32" ht="25.5">
-      <c r="A133" s="303"/>
+      <c r="A133" s="307"/>
       <c r="B133" s="116" t="s">
         <v>221</v>
       </c>
@@ -16877,7 +16886,7 @@
       </c>
     </row>
     <row r="134" spans="1:32" ht="38.25">
-      <c r="A134" s="257" t="s">
+      <c r="A134" s="260" t="s">
         <v>33</v>
       </c>
       <c r="B134" s="59" t="s">
@@ -16943,7 +16952,7 @@
       </c>
     </row>
     <row r="135" spans="1:32" ht="38.25">
-      <c r="A135" s="258"/>
+      <c r="A135" s="261"/>
       <c r="B135" s="123" t="s">
         <v>222</v>
       </c>
@@ -17007,7 +17016,7 @@
       </c>
     </row>
     <row r="136" spans="1:32" ht="51">
-      <c r="A136" s="258"/>
+      <c r="A136" s="261"/>
       <c r="B136" s="123" t="s">
         <v>223</v>
       </c>
@@ -17071,7 +17080,7 @@
       </c>
     </row>
     <row r="137" spans="1:32" ht="38.25">
-      <c r="A137" s="258"/>
+      <c r="A137" s="261"/>
       <c r="B137" s="123" t="s">
         <v>224</v>
       </c>
@@ -17135,7 +17144,7 @@
       </c>
     </row>
     <row r="138" spans="1:32" ht="60">
-      <c r="A138" s="299" t="s">
+      <c r="A138" s="303" t="s">
         <v>34</v>
       </c>
       <c r="B138" s="68" t="s">
@@ -17201,7 +17210,7 @@
       </c>
     </row>
     <row r="139" spans="1:32" ht="42.75">
-      <c r="A139" s="300"/>
+      <c r="A139" s="304"/>
       <c r="B139" s="124" t="s">
         <v>226</v>
       </c>
@@ -17265,7 +17274,7 @@
       </c>
     </row>
     <row r="140" spans="1:32" ht="28.5">
-      <c r="A140" s="300"/>
+      <c r="A140" s="304"/>
       <c r="B140" s="124" t="s">
         <v>227</v>
       </c>
@@ -17329,7 +17338,7 @@
       </c>
     </row>
     <row r="141" spans="1:32" ht="28.5">
-      <c r="A141" s="300"/>
+      <c r="A141" s="304"/>
       <c r="B141" s="124" t="s">
         <v>228</v>
       </c>
@@ -17393,7 +17402,7 @@
       </c>
     </row>
     <row r="142" spans="1:32" ht="28.5">
-      <c r="A142" s="297"/>
+      <c r="A142" s="211"/>
       <c r="B142" s="125" t="s">
         <v>229</v>
       </c>
@@ -17457,7 +17466,7 @@
       </c>
     </row>
     <row r="143" spans="1:32" ht="89.25">
-      <c r="A143" s="257" t="s">
+      <c r="A143" s="260" t="s">
         <v>36</v>
       </c>
       <c r="B143" s="59" t="s">
@@ -17523,7 +17532,7 @@
       </c>
     </row>
     <row r="144" spans="1:32" ht="38.25">
-      <c r="A144" s="258"/>
+      <c r="A144" s="261"/>
       <c r="B144" s="122" t="s">
         <v>230</v>
       </c>
@@ -17587,7 +17596,7 @@
       </c>
     </row>
     <row r="145" spans="1:32" ht="51">
-      <c r="A145" s="258"/>
+      <c r="A145" s="261"/>
       <c r="B145" s="120" t="s">
         <v>65</v>
       </c>
@@ -17651,7 +17660,7 @@
       </c>
     </row>
     <row r="146" spans="1:32" ht="63.75">
-      <c r="A146" s="258"/>
+      <c r="A146" s="261"/>
       <c r="B146" s="116" t="s">
         <v>66</v>
       </c>
@@ -17715,7 +17724,7 @@
       </c>
     </row>
     <row r="147" spans="1:32" ht="38.25">
-      <c r="A147" s="258"/>
+      <c r="A147" s="261"/>
       <c r="B147" s="116" t="s">
         <v>67</v>
       </c>
@@ -17779,7 +17788,7 @@
       </c>
     </row>
     <row r="148" spans="1:32" ht="51">
-      <c r="A148" s="257" t="s">
+      <c r="A148" s="260" t="s">
         <v>37</v>
       </c>
       <c r="B148" s="59" t="s">
@@ -17845,7 +17854,7 @@
       </c>
     </row>
     <row r="149" spans="1:32" ht="51">
-      <c r="A149" s="258"/>
+      <c r="A149" s="261"/>
       <c r="B149" s="120" t="s">
         <v>124</v>
       </c>
@@ -17909,7 +17918,7 @@
       </c>
     </row>
     <row r="150" spans="1:32" ht="63.75">
-      <c r="A150" s="258"/>
+      <c r="A150" s="261"/>
       <c r="B150" s="126" t="s">
         <v>231</v>
       </c>
@@ -17973,7 +17982,7 @@
       </c>
     </row>
     <row r="151" spans="1:32" ht="63.75">
-      <c r="A151" s="258"/>
+      <c r="A151" s="261"/>
       <c r="B151" s="120" t="s">
         <v>125</v>
       </c>
@@ -18037,7 +18046,7 @@
       </c>
     </row>
     <row r="152" spans="1:32" ht="51">
-      <c r="A152" s="257" t="s">
+      <c r="A152" s="260" t="s">
         <v>38</v>
       </c>
       <c r="B152" s="64" t="s">
@@ -18103,7 +18112,7 @@
       </c>
     </row>
     <row r="153" spans="1:32" ht="63.75">
-      <c r="A153" s="258"/>
+      <c r="A153" s="261"/>
       <c r="B153" s="116" t="s">
         <v>233</v>
       </c>
@@ -18167,7 +18176,7 @@
       </c>
     </row>
     <row r="154" spans="1:32" ht="51">
-      <c r="A154" s="258"/>
+      <c r="A154" s="261"/>
       <c r="B154" s="116" t="s">
         <v>234</v>
       </c>
@@ -18231,7 +18240,7 @@
       </c>
     </row>
     <row r="155" spans="1:32" ht="51">
-      <c r="A155" s="258"/>
+      <c r="A155" s="261"/>
       <c r="B155" s="116" t="s">
         <v>235</v>
       </c>
@@ -18295,7 +18304,7 @@
       </c>
     </row>
     <row r="156" spans="1:32" ht="76.5">
-      <c r="A156" s="257" t="s">
+      <c r="A156" s="260" t="s">
         <v>39</v>
       </c>
       <c r="B156" s="64" t="s">
@@ -18361,7 +18370,7 @@
       </c>
     </row>
     <row r="157" spans="1:32" ht="89.25">
-      <c r="A157" s="258"/>
+      <c r="A157" s="261"/>
       <c r="B157" s="118" t="s">
         <v>237</v>
       </c>
@@ -18425,7 +18434,7 @@
       </c>
     </row>
     <row r="158" spans="1:32" ht="63.75">
-      <c r="A158" s="258"/>
+      <c r="A158" s="261"/>
       <c r="B158" s="116" t="s">
         <v>238</v>
       </c>
@@ -18489,7 +18498,7 @@
       </c>
     </row>
     <row r="159" spans="1:32" ht="76.5">
-      <c r="A159" s="258"/>
+      <c r="A159" s="261"/>
       <c r="B159" s="116" t="s">
         <v>239</v>
       </c>
@@ -18553,7 +18562,7 @@
       </c>
     </row>
     <row r="160" spans="1:32" ht="38.25">
-      <c r="A160" s="257" t="s">
+      <c r="A160" s="260" t="s">
         <v>126</v>
       </c>
       <c r="B160" s="64" t="s">
@@ -18619,7 +18628,7 @@
       </c>
     </row>
     <row r="161" spans="1:32" ht="38.25">
-      <c r="A161" s="258"/>
+      <c r="A161" s="261"/>
       <c r="B161" s="120" t="s">
         <v>241</v>
       </c>
@@ -18683,7 +18692,7 @@
       </c>
     </row>
     <row r="162" spans="1:32" ht="51">
-      <c r="A162" s="258"/>
+      <c r="A162" s="261"/>
       <c r="B162" s="120" t="s">
         <v>242</v>
       </c>
@@ -18747,7 +18756,7 @@
       </c>
     </row>
     <row r="163" spans="1:32" ht="38.25">
-      <c r="A163" s="258"/>
+      <c r="A163" s="261"/>
       <c r="B163" s="120" t="s">
         <v>243</v>
       </c>
@@ -18811,7 +18820,7 @@
       </c>
     </row>
     <row r="164" spans="1:32" ht="38.25">
-      <c r="A164" s="301" t="s">
+      <c r="A164" s="305" t="s">
         <v>244</v>
       </c>
       <c r="B164" s="64" t="s">
@@ -18877,7 +18886,7 @@
       </c>
     </row>
     <row r="165" spans="1:32" ht="51">
-      <c r="A165" s="302"/>
+      <c r="A165" s="308"/>
       <c r="B165" s="127" t="s">
         <v>246</v>
       </c>
@@ -18941,7 +18950,7 @@
       </c>
     </row>
     <row r="166" spans="1:32" ht="51">
-      <c r="A166" s="302"/>
+      <c r="A166" s="308"/>
       <c r="B166" s="107" t="s">
         <v>247</v>
       </c>
@@ -19005,7 +19014,7 @@
       </c>
     </row>
     <row r="167" spans="1:32" ht="25.5">
-      <c r="A167" s="302"/>
+      <c r="A167" s="308"/>
       <c r="B167" s="107" t="s">
         <v>248</v>
       </c>
@@ -19069,7 +19078,7 @@
       </c>
     </row>
     <row r="168" spans="1:32" ht="25.5">
-      <c r="A168" s="257" t="s">
+      <c r="A168" s="260" t="s">
         <v>40</v>
       </c>
       <c r="B168" s="63" t="s">
@@ -19135,7 +19144,7 @@
       </c>
     </row>
     <row r="169" spans="1:32" ht="57">
-      <c r="A169" s="258"/>
+      <c r="A169" s="261"/>
       <c r="B169" s="150" t="s">
         <v>342</v>
       </c>
@@ -19199,7 +19208,7 @@
       </c>
     </row>
     <row r="170" spans="1:32" ht="28.5">
-      <c r="A170" s="258"/>
+      <c r="A170" s="261"/>
       <c r="B170" s="150" t="s">
         <v>343</v>
       </c>
@@ -19263,7 +19272,7 @@
       </c>
     </row>
     <row r="171" spans="1:32">
-      <c r="A171" s="258"/>
+      <c r="A171" s="261"/>
       <c r="B171" s="151" t="s">
         <v>344</v>
       </c>
@@ -19327,7 +19336,7 @@
       </c>
     </row>
     <row r="172" spans="1:32" ht="51">
-      <c r="A172" s="299" t="s">
+      <c r="A172" s="303" t="s">
         <v>41</v>
       </c>
       <c r="B172" s="64" t="s">
@@ -19393,7 +19402,7 @@
       </c>
     </row>
     <row r="173" spans="1:32" ht="38.25">
-      <c r="A173" s="300"/>
+      <c r="A173" s="304"/>
       <c r="B173" s="70" t="s">
         <v>251</v>
       </c>
@@ -19457,7 +19466,7 @@
       </c>
     </row>
     <row r="174" spans="1:32" ht="76.5">
-      <c r="A174" s="300"/>
+      <c r="A174" s="304"/>
       <c r="B174" s="70" t="s">
         <v>401</v>
       </c>
@@ -19521,7 +19530,7 @@
       </c>
     </row>
     <row r="175" spans="1:32" ht="25.5">
-      <c r="A175" s="300"/>
+      <c r="A175" s="304"/>
       <c r="B175" s="70" t="s">
         <v>252</v>
       </c>
@@ -19585,7 +19594,7 @@
       </c>
     </row>
     <row r="176" spans="1:32" ht="51">
-      <c r="A176" s="297"/>
+      <c r="A176" s="211"/>
       <c r="B176" s="70" t="s">
         <v>253</v>
       </c>
@@ -19649,7 +19658,7 @@
       </c>
     </row>
     <row r="177" spans="1:32" ht="63.75">
-      <c r="A177" s="257" t="s">
+      <c r="A177" s="260" t="s">
         <v>42</v>
       </c>
       <c r="B177" s="64" t="s">
@@ -19715,7 +19724,7 @@
       </c>
     </row>
     <row r="178" spans="1:32" ht="38.25">
-      <c r="A178" s="258"/>
+      <c r="A178" s="261"/>
       <c r="B178" s="116" t="s">
         <v>129</v>
       </c>
@@ -19779,7 +19788,7 @@
       </c>
     </row>
     <row r="179" spans="1:32" ht="63.75">
-      <c r="A179" s="258"/>
+      <c r="A179" s="261"/>
       <c r="B179" s="70" t="s">
         <v>255</v>
       </c>
@@ -19843,7 +19852,7 @@
       </c>
     </row>
     <row r="180" spans="1:32" ht="63.75">
-      <c r="A180" s="258"/>
+      <c r="A180" s="261"/>
       <c r="B180" s="116" t="s">
         <v>256</v>
       </c>
@@ -19907,7 +19916,7 @@
       </c>
     </row>
     <row r="181" spans="1:32" ht="76.5">
-      <c r="A181" s="257" t="s">
+      <c r="A181" s="260" t="s">
         <v>43</v>
       </c>
       <c r="B181" s="64" t="s">
@@ -19973,7 +19982,7 @@
       </c>
     </row>
     <row r="182" spans="1:32" ht="76.5">
-      <c r="A182" s="258"/>
+      <c r="A182" s="261"/>
       <c r="B182" s="128" t="s">
         <v>258</v>
       </c>
@@ -20037,7 +20046,7 @@
       </c>
     </row>
     <row r="183" spans="1:32" ht="25.5">
-      <c r="A183" s="258"/>
+      <c r="A183" s="261"/>
       <c r="B183" s="106" t="s">
         <v>259</v>
       </c>
@@ -20101,7 +20110,7 @@
       </c>
     </row>
     <row r="184" spans="1:32" ht="38.25">
-      <c r="A184" s="258"/>
+      <c r="A184" s="261"/>
       <c r="B184" s="107" t="s">
         <v>260</v>
       </c>
@@ -20165,7 +20174,7 @@
       </c>
     </row>
     <row r="185" spans="1:32" ht="38.25">
-      <c r="A185" s="257" t="s">
+      <c r="A185" s="260" t="s">
         <v>44</v>
       </c>
       <c r="B185" s="64" t="s">
@@ -20231,7 +20240,7 @@
       </c>
     </row>
     <row r="186" spans="1:32" ht="25.5">
-      <c r="A186" s="258"/>
+      <c r="A186" s="261"/>
       <c r="B186" s="116" t="s">
         <v>262</v>
       </c>
@@ -20295,7 +20304,7 @@
       </c>
     </row>
     <row r="187" spans="1:32" ht="25.5">
-      <c r="A187" s="258"/>
+      <c r="A187" s="261"/>
       <c r="B187" s="116" t="s">
         <v>261</v>
       </c>
@@ -20359,7 +20368,7 @@
       </c>
     </row>
     <row r="188" spans="1:32" ht="25.5">
-      <c r="A188" s="258"/>
+      <c r="A188" s="261"/>
       <c r="B188" s="116" t="s">
         <v>263</v>
       </c>
@@ -20423,7 +20432,7 @@
       </c>
     </row>
     <row r="189" spans="1:32" ht="51">
-      <c r="A189" s="299" t="s">
+      <c r="A189" s="303" t="s">
         <v>45</v>
       </c>
       <c r="B189" s="71" t="s">
@@ -20489,7 +20498,7 @@
       </c>
     </row>
     <row r="190" spans="1:32" ht="25.5">
-      <c r="A190" s="300"/>
+      <c r="A190" s="304"/>
       <c r="B190" s="106" t="s">
         <v>265</v>
       </c>
@@ -20553,7 +20562,7 @@
       </c>
     </row>
     <row r="191" spans="1:32" ht="38.25">
-      <c r="A191" s="300"/>
+      <c r="A191" s="304"/>
       <c r="B191" s="120" t="s">
         <v>266</v>
       </c>
@@ -20617,7 +20626,7 @@
       </c>
     </row>
     <row r="192" spans="1:32" ht="38.25">
-      <c r="A192" s="300"/>
+      <c r="A192" s="304"/>
       <c r="B192" s="106" t="s">
         <v>267</v>
       </c>
@@ -20681,7 +20690,7 @@
       </c>
     </row>
     <row r="193" spans="1:32" ht="38.25">
-      <c r="A193" s="297"/>
+      <c r="A193" s="211"/>
       <c r="B193" s="107" t="s">
         <v>268</v>
       </c>
@@ -20745,7 +20754,7 @@
       </c>
     </row>
     <row r="194" spans="1:32" ht="51">
-      <c r="A194" s="257" t="s">
+      <c r="A194" s="260" t="s">
         <v>46</v>
       </c>
       <c r="B194" s="71" t="s">
@@ -20811,7 +20820,7 @@
       </c>
     </row>
     <row r="195" spans="1:32" ht="38.25">
-      <c r="A195" s="258"/>
+      <c r="A195" s="261"/>
       <c r="B195" s="106" t="s">
         <v>270</v>
       </c>
@@ -20875,7 +20884,7 @@
       </c>
     </row>
     <row r="196" spans="1:32" ht="38.25">
-      <c r="A196" s="258"/>
+      <c r="A196" s="261"/>
       <c r="B196" s="106" t="s">
         <v>271</v>
       </c>
@@ -20939,7 +20948,7 @@
       </c>
     </row>
     <row r="197" spans="1:32" ht="38.25">
-      <c r="A197" s="258"/>
+      <c r="A197" s="261"/>
       <c r="B197" s="106" t="s">
         <v>272</v>
       </c>
@@ -21003,7 +21012,7 @@
       </c>
     </row>
     <row r="198" spans="1:32" ht="38.25">
-      <c r="A198" s="299" t="s">
+      <c r="A198" s="303" t="s">
         <v>47</v>
       </c>
       <c r="B198" s="63" t="s">
@@ -21069,7 +21078,7 @@
       </c>
     </row>
     <row r="199" spans="1:32" ht="63.75">
-      <c r="A199" s="300"/>
+      <c r="A199" s="304"/>
       <c r="B199" s="107" t="s">
         <v>274</v>
       </c>
@@ -21133,7 +21142,7 @@
       </c>
     </row>
     <row r="200" spans="1:32" ht="38.25">
-      <c r="A200" s="300"/>
+      <c r="A200" s="304"/>
       <c r="B200" s="107" t="s">
         <v>275</v>
       </c>
@@ -21197,7 +21206,7 @@
       </c>
     </row>
     <row r="201" spans="1:32" ht="76.5">
-      <c r="A201" s="300"/>
+      <c r="A201" s="304"/>
       <c r="B201" s="119" t="s">
         <v>276</v>
       </c>
@@ -21261,7 +21270,7 @@
       </c>
     </row>
     <row r="202" spans="1:32" ht="63.75">
-      <c r="A202" s="297"/>
+      <c r="A202" s="211"/>
       <c r="B202" s="121" t="s">
         <v>277</v>
       </c>
@@ -21325,7 +21334,7 @@
       </c>
     </row>
     <row r="203" spans="1:32" ht="76.5">
-      <c r="A203" s="257" t="s">
+      <c r="A203" s="260" t="s">
         <v>48</v>
       </c>
       <c r="B203" s="65" t="s">
@@ -21391,7 +21400,7 @@
       </c>
     </row>
     <row r="204" spans="1:32" ht="76.5">
-      <c r="A204" s="258"/>
+      <c r="A204" s="261"/>
       <c r="B204" s="129" t="s">
         <v>279</v>
       </c>
@@ -21455,7 +21464,7 @@
       </c>
     </row>
     <row r="205" spans="1:32" ht="76.5">
-      <c r="A205" s="258"/>
+      <c r="A205" s="261"/>
       <c r="B205" s="120" t="s">
         <v>280</v>
       </c>
@@ -21519,7 +21528,7 @@
       </c>
     </row>
     <row r="206" spans="1:32" ht="89.25">
-      <c r="A206" s="258"/>
+      <c r="A206" s="261"/>
       <c r="B206" s="119" t="s">
         <v>281</v>
       </c>
@@ -21583,7 +21592,7 @@
       </c>
     </row>
     <row r="207" spans="1:32" ht="102">
-      <c r="A207" s="304" t="s">
+      <c r="A207" s="299" t="s">
         <v>345</v>
       </c>
       <c r="B207" s="156" t="s">
@@ -21645,7 +21654,7 @@
       </c>
     </row>
     <row r="208" spans="1:32" ht="42.75">
-      <c r="A208" s="304"/>
+      <c r="A208" s="299"/>
       <c r="B208" s="157" t="s">
         <v>347</v>
       </c>
@@ -21705,7 +21714,7 @@
       </c>
     </row>
     <row r="209" spans="1:31" ht="28.5">
-      <c r="A209" s="304"/>
+      <c r="A209" s="299"/>
       <c r="B209" s="157" t="s">
         <v>348</v>
       </c>
@@ -21765,7 +21774,7 @@
       </c>
     </row>
     <row r="210" spans="1:31" ht="42.75">
-      <c r="A210" s="304"/>
+      <c r="A210" s="299"/>
       <c r="B210" s="157" t="s">
         <v>349</v>
       </c>
@@ -21923,6 +21932,38 @@
     <protectedRange sqref="B171" name="Rango1_5_4"/>
   </protectedRanges>
   <mergeCells count="48">
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A90"/>
     <mergeCell ref="A207:A210"/>
     <mergeCell ref="C5:O5"/>
     <mergeCell ref="Q5:AC5"/>
@@ -21939,38 +21980,6 @@
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A124"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="A189:A193"/>
-    <mergeCell ref="A194:A197"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:N6">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="yesterday">
